--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760605F-5C1F-4D0E-9B60-9B699DD4E851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEDB194-0390-4EBA-AADB-2417C6690E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="1095" windowWidth="10620" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="6510" windowWidth="10875" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,16 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Iphone 8TPU</t>
-  </si>
-  <si>
-    <t>Iphone 8PC</t>
-  </si>
-  <si>
-    <t>Visu/Plastique/Iphone8/*</t>
-  </si>
-  <si>
     <t>Visu/Silicone/Iphone8/*</t>
+  </si>
+  <si>
+    <t>Iphone6TPU</t>
+  </si>
+  <si>
+    <t>Iphone8TPU</t>
+  </si>
+  <si>
+    <t>Visu/Silicone/Iphone6/*</t>
   </si>
 </sst>
 </file>
@@ -385,13 +385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
@@ -413,13 +413,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1950</v>
+        <v>518</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -427,16 +427,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1620</v>
+        <v>538</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEDB194-0390-4EBA-AADB-2417C6690E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700D44D-1003-4333-99BD-6DC25C54749B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="6510" windowWidth="10875" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1755" windowWidth="10875" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Téléphone</t>
   </si>
@@ -31,29 +31,27 @@
     <t>Largeur</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Visu/Silicone/Iphone8/*</t>
-  </si>
-  <si>
-    <t>Iphone6TPU</t>
-  </si>
-  <si>
-    <t>Iphone8TPU</t>
-  </si>
-  <si>
-    <t>Visu/Silicone/Iphone6/*</t>
+    <t>Iphone6</t>
+  </si>
+  <si>
+    <t>Iphone8</t>
+  </si>
+  <si>
+    <t>Iphone11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -383,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,10 +392,10 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,40 +405,43 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>718</v>
+      </c>
+      <c r="C2">
+        <v>358</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>618</v>
+      </c>
+      <c r="C3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>518</v>
-      </c>
-      <c r="C2">
-        <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>538</v>
-      </c>
-      <c r="C3">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>630</v>
+      </c>
+      <c r="C4">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700D44D-1003-4333-99BD-6DC25C54749B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E56905-4AC8-4AF8-86B6-21EDF6B4B7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1755" windowWidth="10875" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-600" yWindow="3255" windowWidth="10875" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,10 +411,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>718</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>358</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E56905-4AC8-4AF8-86B6-21EDF6B4B7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9F23C-6510-48F3-916B-7D80B00D738D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="3255" windowWidth="10875" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>Téléphone</t>
   </si>
@@ -37,14 +45,359 @@
     <t>Iphone8</t>
   </si>
   <si>
-    <t>Iphone11</t>
+    <t>Iphone11 6.1</t>
+  </si>
+  <si>
+    <t>Iphone11 Pro 5.8</t>
+  </si>
+  <si>
+    <t>Iphone11 Pro Max 6.5</t>
+  </si>
+  <si>
+    <t>IphoneX</t>
+  </si>
+  <si>
+    <t>IphoneXr</t>
+  </si>
+  <si>
+    <t>IphoneXS MAX</t>
+  </si>
+  <si>
+    <t>Iphone4</t>
+  </si>
+  <si>
+    <t>Iphone5</t>
+  </si>
+  <si>
+    <t>Iphone5C</t>
+  </si>
+  <si>
+    <t>Iphone6 Plus</t>
+  </si>
+  <si>
+    <t>Iphone 7</t>
+  </si>
+  <si>
+    <t>Iphone 7 Plus</t>
+  </si>
+  <si>
+    <t>Ipod Touch 6</t>
+  </si>
+  <si>
+    <t>Galaxy S6 Edge Plus</t>
+  </si>
+  <si>
+    <t>Galaxy S6</t>
+  </si>
+  <si>
+    <t>Galaxy S6 Edge</t>
+  </si>
+  <si>
+    <t>Galaxy S7</t>
+  </si>
+  <si>
+    <t>Galaxy S7 Edge</t>
+  </si>
+  <si>
+    <t>Galaxy S8</t>
+  </si>
+  <si>
+    <t>Galaxy S8 Plus</t>
+  </si>
+  <si>
+    <t>Galaxy S9</t>
+  </si>
+  <si>
+    <t>Galaxy S9 Plus</t>
+  </si>
+  <si>
+    <t>Galaxy S10</t>
+  </si>
+  <si>
+    <t>Galaxy S10E</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Plus</t>
+  </si>
+  <si>
+    <t>Galaxy A3</t>
+  </si>
+  <si>
+    <t>Galaxy A3 2016</t>
+  </si>
+  <si>
+    <t>Galaxy A3 2017</t>
+  </si>
+  <si>
+    <t>Galaxy A5</t>
+  </si>
+  <si>
+    <t>Galaxy A5 2016</t>
+  </si>
+  <si>
+    <t>Galaxy A5 2017</t>
+  </si>
+  <si>
+    <t>Galaxy A6 2018</t>
+  </si>
+  <si>
+    <t>Galaxy A6 PLUS 2018</t>
+  </si>
+  <si>
+    <t>Galaxy A7</t>
+  </si>
+  <si>
+    <t>Galaxy A7 2016</t>
+  </si>
+  <si>
+    <t>Galaxy A7 2017</t>
+  </si>
+  <si>
+    <t>Galaxy A7 2018</t>
+  </si>
+  <si>
+    <t>Galaxy A8</t>
+  </si>
+  <si>
+    <t>Galaxy A8 2018</t>
+  </si>
+  <si>
+    <t>Galaxy A8 Plus 2018</t>
+  </si>
+  <si>
+    <t>Galaxy A9</t>
+  </si>
+  <si>
+    <t>Galaxy J3</t>
+  </si>
+  <si>
+    <t>Galaxy J3 2016</t>
+  </si>
+  <si>
+    <t>Galaxy J3 2017</t>
+  </si>
+  <si>
+    <t>Galaxy J5</t>
+  </si>
+  <si>
+    <t>Galaxy J5 2016</t>
+  </si>
+  <si>
+    <t>Galaxy J5 2017</t>
+  </si>
+  <si>
+    <t>Galaxy J6</t>
+  </si>
+  <si>
+    <t>Galaxy J6+</t>
+  </si>
+  <si>
+    <t>Galaxy J7</t>
+  </si>
+  <si>
+    <t>Galaxy J7 2016</t>
+  </si>
+  <si>
+    <t>Galaxy J7 2017</t>
+  </si>
+  <si>
+    <t>Galaxy J8 2018</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 +</t>
+  </si>
+  <si>
+    <t>Galaxy Grand Prime</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A10e</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A20e</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P8 Lite</t>
+  </si>
+  <si>
+    <t>P8 Lite 2017</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P9 Lite</t>
+  </si>
+  <si>
+    <t>P9 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10 </t>
+  </si>
+  <si>
+    <t>P10 Lite</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P20 Pro</t>
+  </si>
+  <si>
+    <t>P20 Lite</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P30 Pro</t>
+  </si>
+  <si>
+    <t>P30 Lite</t>
+  </si>
+  <si>
+    <t>Psmart</t>
+  </si>
+  <si>
+    <t>Psmart 2019</t>
+  </si>
+  <si>
+    <t>Mate 9</t>
+  </si>
+  <si>
+    <t>Mate 10</t>
+  </si>
+  <si>
+    <t>Mate 10 Pro</t>
+  </si>
+  <si>
+    <t>Mate 10 Lite</t>
+  </si>
+  <si>
+    <t>Mate 20</t>
+  </si>
+  <si>
+    <t>Mate 20 Pro</t>
+  </si>
+  <si>
+    <t>Mate 20 Lite</t>
+  </si>
+  <si>
+    <t>Honor 6</t>
+  </si>
+  <si>
+    <t>Honor 7</t>
+  </si>
+  <si>
+    <t>Honor 8</t>
+  </si>
+  <si>
+    <t>Honor 8X</t>
+  </si>
+  <si>
+    <t>Honor 9</t>
+  </si>
+  <si>
+    <t>Honor 10</t>
+  </si>
+  <si>
+    <t>Honor 10 Lite</t>
+  </si>
+  <si>
+    <t>Y5 2019</t>
+  </si>
+  <si>
+    <t>Y6 2018</t>
+  </si>
+  <si>
+    <t>Y6 2019</t>
+  </si>
+  <si>
+    <t>View 20</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>Z5 Mini</t>
+  </si>
+  <si>
+    <t>Z5 Premium</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>XA Ultra</t>
+  </si>
+  <si>
+    <t>XA1</t>
+  </si>
+  <si>
+    <t>XA1 Ultra</t>
+  </si>
+  <si>
+    <t>XA2</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>XZ1</t>
+  </si>
+  <si>
+    <t>XZ2</t>
+  </si>
+  <si>
+    <t>XZ3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -54,16 +407,52 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,12 +460,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,21 +811,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,42 +836,1319 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>145</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>139</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>136</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="G6">
+        <v>510</v>
+      </c>
+      <c r="H6">
         <v>250</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>680</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>130</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>117</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>134</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>135</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>618</v>
-      </c>
-      <c r="C3">
+      <c r="C18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>132</v>
+      </c>
+      <c r="C19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>141</v>
+      </c>
+      <c r="C20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>151</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>149</v>
+      </c>
+      <c r="C24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>140</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+      <c r="C26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>148</v>
+      </c>
+      <c r="C27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1310</v>
+      </c>
+      <c r="C31">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>139</v>
+      </c>
+      <c r="C32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>630</v>
-      </c>
-      <c r="C4">
-        <v>239</v>
-      </c>
+      <c r="C33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>138</v>
+      </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>148</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>145</v>
+      </c>
+      <c r="C37">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>150</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>150</v>
+      </c>
+      <c r="C40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>141</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>151</v>
+      </c>
+      <c r="C42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>155</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>129</v>
+      </c>
+      <c r="C44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>129</v>
+      </c>
+      <c r="C47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>132</v>
+      </c>
+      <c r="C48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>138</v>
+      </c>
+      <c r="C49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>137</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>152</v>
+      </c>
+      <c r="C51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>144</v>
+      </c>
+      <c r="C52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>148</v>
+      </c>
+      <c r="C53">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>146</v>
+      </c>
+      <c r="C54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>150</v>
+      </c>
+      <c r="C55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>154</v>
+      </c>
+      <c r="C56">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>153</v>
+      </c>
+      <c r="C57">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>147</v>
+      </c>
+      <c r="C58">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>157</v>
+      </c>
+      <c r="C59">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>134</v>
+      </c>
+      <c r="C60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>147</v>
+      </c>
+      <c r="C61">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>147</v>
+      </c>
+      <c r="C62">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>159</v>
+      </c>
+      <c r="C63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>159</v>
+      </c>
+      <c r="C64">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>147</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>140</v>
+      </c>
+      <c r="C66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>157</v>
+      </c>
+      <c r="C67">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>155</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>139</v>
+      </c>
+      <c r="C69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>139</v>
+      </c>
+      <c r="C70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>134</v>
+      </c>
+      <c r="C72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>139</v>
+      </c>
+      <c r="C73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>139</v>
+      </c>
+      <c r="C74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>138</v>
+      </c>
+      <c r="C75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>139</v>
+      </c>
+      <c r="C76">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>140</v>
+      </c>
+      <c r="C77">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>148</v>
+      </c>
+      <c r="C78">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>142</v>
+      </c>
+      <c r="C79">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>139</v>
+      </c>
+      <c r="C80">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>144</v>
+      </c>
+      <c r="C81">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>142</v>
+      </c>
+      <c r="C82">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>139</v>
+      </c>
+      <c r="C83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>149</v>
+      </c>
+      <c r="C84">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>150</v>
+      </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>140</v>
+      </c>
+      <c r="C86">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>146</v>
+      </c>
+      <c r="C87">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>148</v>
+      </c>
+      <c r="C88">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>151</v>
+      </c>
+      <c r="C89">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>148</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>150</v>
+      </c>
+      <c r="C91">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>135</v>
+      </c>
+      <c r="C92">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>135</v>
+      </c>
+      <c r="C93">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>138</v>
+      </c>
+      <c r="C94">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>152</v>
+      </c>
+      <c r="C95">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>138</v>
+      </c>
+      <c r="C96">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>140</v>
+      </c>
+      <c r="C97">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>150</v>
+      </c>
+      <c r="C98">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>140</v>
+      </c>
+      <c r="C99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>141</v>
+      </c>
+      <c r="C100">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>153</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>155</v>
+      </c>
+      <c r="C102">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>145</v>
+      </c>
+      <c r="C103">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>145</v>
+      </c>
+      <c r="C104">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>145</v>
+      </c>
+      <c r="C105">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>142</v>
+      </c>
+      <c r="C106">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>123</v>
+      </c>
+      <c r="C107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>160</v>
+      </c>
+      <c r="C108">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>138</v>
+      </c>
+      <c r="C109">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>138</v>
+      </c>
+      <c r="C110">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>160</v>
+      </c>
+      <c r="C111">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>141</v>
+      </c>
+      <c r="C112">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>160</v>
+      </c>
+      <c r="C113">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>160</v>
+      </c>
+      <c r="C114">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>143</v>
+      </c>
+      <c r="C115">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>145</v>
+      </c>
+      <c r="C116">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>133</v>
+      </c>
+      <c r="C117">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>141</v>
+      </c>
+      <c r="C118">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9F23C-6510-48F3-916B-7D80B00D738D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF1ED5-BB99-426F-87CC-1AFC98347DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Téléphone</t>
   </si>
@@ -39,54 +39,12 @@
     <t>Largeur</t>
   </si>
   <si>
-    <t>Iphone6</t>
-  </si>
-  <si>
-    <t>Iphone8</t>
-  </si>
-  <si>
-    <t>Iphone11 6.1</t>
-  </si>
-  <si>
-    <t>Iphone11 Pro 5.8</t>
-  </si>
-  <si>
-    <t>Iphone11 Pro Max 6.5</t>
-  </si>
-  <si>
-    <t>IphoneX</t>
-  </si>
-  <si>
-    <t>IphoneXr</t>
-  </si>
-  <si>
-    <t>IphoneXS MAX</t>
-  </si>
-  <si>
-    <t>Iphone4</t>
-  </si>
-  <si>
-    <t>Iphone5</t>
-  </si>
-  <si>
-    <t>Iphone5C</t>
-  </si>
-  <si>
-    <t>Iphone6 Plus</t>
-  </si>
-  <si>
     <t>Iphone 7</t>
   </si>
   <si>
-    <t>Iphone 7 Plus</t>
-  </si>
-  <si>
     <t>Ipod Touch 6</t>
   </si>
   <si>
-    <t>Galaxy S6 Edge Plus</t>
-  </si>
-  <si>
     <t>Galaxy S6</t>
   </si>
   <si>
@@ -102,24 +60,15 @@
     <t>Galaxy S8</t>
   </si>
   <si>
-    <t>Galaxy S8 Plus</t>
-  </si>
-  <si>
     <t>Galaxy S9</t>
   </si>
   <si>
-    <t>Galaxy S9 Plus</t>
-  </si>
-  <si>
     <t>Galaxy S10</t>
   </si>
   <si>
     <t>Galaxy S10E</t>
   </si>
   <si>
-    <t>Galaxy S10 Plus</t>
-  </si>
-  <si>
     <t>Galaxy A3</t>
   </si>
   <si>
@@ -141,9 +90,6 @@
     <t>Galaxy A6 2018</t>
   </si>
   <si>
-    <t>Galaxy A6 PLUS 2018</t>
-  </si>
-  <si>
     <t>Galaxy A7</t>
   </si>
   <si>
@@ -162,9 +108,6 @@
     <t>Galaxy A8 2018</t>
   </si>
   <si>
-    <t>Galaxy A8 Plus 2018</t>
-  </si>
-  <si>
     <t>Galaxy A9</t>
   </si>
   <si>
@@ -246,45 +189,24 @@
     <t>P8</t>
   </si>
   <si>
-    <t>P8 Lite</t>
-  </si>
-  <si>
-    <t>P8 Lite 2017</t>
-  </si>
-  <si>
     <t>P9</t>
   </si>
   <si>
-    <t>P9 Lite</t>
-  </si>
-  <si>
-    <t>P9 Plus</t>
-  </si>
-  <si>
     <t xml:space="preserve">P10 </t>
   </si>
   <si>
-    <t>P10 Lite</t>
-  </si>
-  <si>
     <t>P20</t>
   </si>
   <si>
     <t>P20 Pro</t>
   </si>
   <si>
-    <t>P20 Lite</t>
-  </si>
-  <si>
     <t>P30</t>
   </si>
   <si>
     <t>P30 Pro</t>
   </si>
   <si>
-    <t>P30 Lite</t>
-  </si>
-  <si>
     <t>Psmart</t>
   </si>
   <si>
@@ -300,18 +222,12 @@
     <t>Mate 10 Pro</t>
   </si>
   <si>
-    <t>Mate 10 Lite</t>
-  </si>
-  <si>
     <t>Mate 20</t>
   </si>
   <si>
     <t>Mate 20 Pro</t>
   </si>
   <si>
-    <t>Mate 20 Lite</t>
-  </si>
-  <si>
     <t>Honor 6</t>
   </si>
   <si>
@@ -330,9 +246,6 @@
     <t>Honor 10</t>
   </si>
   <si>
-    <t>Honor 10 Lite</t>
-  </si>
-  <si>
     <t>Y5 2019</t>
   </si>
   <si>
@@ -391,6 +304,90 @@
   </si>
   <si>
     <t>XZ3</t>
+  </si>
+  <si>
+    <t>Iphone 7 +</t>
+  </si>
+  <si>
+    <t>Galaxy S6 Edge +</t>
+  </si>
+  <si>
+    <t>Galaxy S8 +</t>
+  </si>
+  <si>
+    <t>Galaxy S9 +</t>
+  </si>
+  <si>
+    <t>Galaxy S10 +</t>
+  </si>
+  <si>
+    <t>Galaxy A6 + 2018</t>
+  </si>
+  <si>
+    <t>Galaxy A8 + 2018</t>
+  </si>
+  <si>
+    <t>P9 +</t>
+  </si>
+  <si>
+    <t>P8 LTE</t>
+  </si>
+  <si>
+    <t>P8 LTE 2017</t>
+  </si>
+  <si>
+    <t>P9 LTE</t>
+  </si>
+  <si>
+    <t>P10 LTE</t>
+  </si>
+  <si>
+    <t>P20 LTE</t>
+  </si>
+  <si>
+    <t>P30 LTE</t>
+  </si>
+  <si>
+    <t>Mate 10 LTE</t>
+  </si>
+  <si>
+    <t>Mate 20 LTE</t>
+  </si>
+  <si>
+    <t>Honor 10 LTE</t>
+  </si>
+  <si>
+    <t>Iphone 11 6.1</t>
+  </si>
+  <si>
+    <t>Iphone 11 Pro</t>
+  </si>
+  <si>
+    <t>Iphone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>Iphone X</t>
+  </si>
+  <si>
+    <t>Iphone Xr</t>
+  </si>
+  <si>
+    <t>Iphone XS MAX</t>
+  </si>
+  <si>
+    <t>Iphone 4</t>
+  </si>
+  <si>
+    <t>Iphone 5</t>
+  </si>
+  <si>
+    <t>Iphone 5C</t>
+  </si>
+  <si>
+    <t>Iphone 6</t>
+  </si>
+  <si>
+    <t>Iphone 6 +</t>
   </si>
 </sst>
 </file>
@@ -811,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +822,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,9 +833,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>145</v>
@@ -847,9 +844,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>139</v>
@@ -858,9 +855,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -869,9 +866,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>136</v>
@@ -880,9 +877,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>142</v>
@@ -890,19 +887,10 @@
       <c r="C6">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>510</v>
-      </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>151</v>
@@ -910,19 +898,10 @@
       <c r="C7">
         <v>69</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>680</v>
-      </c>
-      <c r="H7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>115</v>
@@ -931,9 +910,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>123</v>
@@ -942,9 +921,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>120</v>
@@ -953,9 +932,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>132</v>
@@ -964,9 +943,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>147</v>
@@ -975,9 +954,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -986,9 +965,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>151</v>
@@ -997,9 +976,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>117</v>
@@ -1008,9 +987,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>134</v>
@@ -1021,7 +1000,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>135</v>
@@ -1033,7 +1012,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>150</v>
@@ -1044,7 +1023,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>132</v>
@@ -1055,7 +1034,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>141</v>
@@ -1066,7 +1045,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>140</v>
@@ -1077,7 +1056,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>151</v>
@@ -1088,7 +1067,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>140</v>
@@ -1099,7 +1078,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>149</v>
@@ -1110,7 +1089,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>140</v>
@@ -1121,7 +1100,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -1132,7 +1111,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>148</v>
@@ -1143,7 +1122,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>120</v>
@@ -1154,7 +1133,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -1165,7 +1144,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>128</v>
@@ -1176,7 +1155,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>1310</v>
@@ -1187,7 +1166,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>139</v>
@@ -1198,7 +1177,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>138</v>
@@ -1209,7 +1188,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>138</v>
@@ -1220,7 +1199,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <v>148</v>
@@ -1231,7 +1210,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>141</v>
@@ -1242,7 +1221,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>145</v>
@@ -1253,7 +1232,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>149</v>
@@ -1264,7 +1243,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -1275,7 +1254,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>150</v>
@@ -1286,7 +1265,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>141</v>
@@ -1297,7 +1276,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B42">
         <v>151</v>
@@ -1308,7 +1287,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>155</v>
@@ -1319,7 +1298,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>129</v>
@@ -1330,7 +1309,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>128</v>
@@ -1341,7 +1320,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B46">
         <v>136</v>
@@ -1352,7 +1331,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <v>129</v>
@@ -1363,7 +1342,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>132</v>
@@ -1374,7 +1353,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <v>138</v>
@@ -1385,7 +1364,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B50">
         <v>137</v>
@@ -1396,7 +1375,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>152</v>
@@ -1407,7 +1386,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>144</v>
@@ -1418,7 +1397,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>148</v>
@@ -1429,7 +1408,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>146</v>
@@ -1440,7 +1419,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>150</v>
@@ -1451,7 +1430,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>154</v>
@@ -1462,7 +1441,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>153</v>
@@ -1473,7 +1452,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>147</v>
@@ -1484,7 +1463,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B59">
         <v>157</v>
@@ -1495,7 +1474,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B60">
         <v>134</v>
@@ -1506,7 +1485,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>147</v>
@@ -1517,7 +1496,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B62">
         <v>147</v>
@@ -1528,7 +1507,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>159</v>
@@ -1539,7 +1518,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B64">
         <v>159</v>
@@ -1550,7 +1529,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>147</v>
@@ -1561,7 +1540,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B66">
         <v>140</v>
@@ -1572,7 +1551,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>157</v>
@@ -1583,7 +1562,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B68">
         <v>155</v>
@@ -1594,7 +1573,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>139</v>
@@ -1605,7 +1584,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B70">
         <v>139</v>
@@ -1616,7 +1595,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B71">
         <v>141</v>
@@ -1627,7 +1606,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>134</v>
@@ -1638,7 +1617,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B73">
         <v>139</v>
@@ -1649,7 +1628,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B74">
         <v>139</v>
@@ -1660,7 +1639,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B75">
         <v>138</v>
@@ -1671,7 +1650,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B76">
         <v>139</v>
@@ -1682,7 +1661,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>140</v>
@@ -1693,7 +1672,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B78">
         <v>148</v>
@@ -1704,7 +1683,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B79">
         <v>142</v>
@@ -1715,7 +1694,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>139</v>
@@ -1726,7 +1705,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B81">
         <v>144</v>
@@ -1737,7 +1716,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>142</v>
@@ -1748,7 +1727,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B83">
         <v>139</v>
@@ -1759,7 +1738,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B84">
         <v>149</v>
@@ -1770,7 +1749,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>150</v>
@@ -1781,7 +1760,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B86">
         <v>140</v>
@@ -1792,7 +1771,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B87">
         <v>146</v>
@@ -1803,7 +1782,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B88">
         <v>148</v>
@@ -1814,7 +1793,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B89">
         <v>151</v>
@@ -1825,7 +1804,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B90">
         <v>148</v>
@@ -1836,7 +1815,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>150</v>
@@ -1847,7 +1826,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>135</v>
@@ -1858,7 +1837,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B93">
         <v>135</v>
@@ -1869,7 +1848,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>138</v>
@@ -1880,7 +1859,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B95">
         <v>152</v>
@@ -1891,7 +1870,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B96">
         <v>138</v>
@@ -1902,7 +1881,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B97">
         <v>140</v>
@@ -1913,7 +1892,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98">
         <v>150</v>
@@ -1924,7 +1903,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B99">
         <v>140</v>
@@ -1935,7 +1914,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B100">
         <v>141</v>
@@ -1946,7 +1925,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>153</v>
@@ -1957,7 +1936,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B102">
         <v>155</v>
@@ -1968,7 +1947,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>145</v>
@@ -1979,7 +1958,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B104">
         <v>145</v>
@@ -1990,7 +1969,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B105">
         <v>145</v>
@@ -2001,7 +1980,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B106">
         <v>142</v>
@@ -2012,7 +1991,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>123</v>
@@ -2023,7 +2002,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B108">
         <v>160</v>
@@ -2034,7 +2013,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>138</v>
@@ -2045,7 +2024,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>138</v>
@@ -2056,7 +2035,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B111">
         <v>160</v>
@@ -2067,7 +2046,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B112">
         <v>141</v>
@@ -2078,7 +2057,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B113">
         <v>160</v>
@@ -2089,7 +2068,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B114">
         <v>160</v>
@@ -2100,7 +2079,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B115">
         <v>143</v>
@@ -2111,7 +2090,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B116">
         <v>145</v>
@@ -2122,7 +2101,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B117">
         <v>133</v>
@@ -2133,7 +2112,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B118">
         <v>141</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF1ED5-BB99-426F-87CC-1AFC98347DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D769D30-1826-4393-B34E-54EC261457FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>Iphone 5C</t>
   </si>
   <si>
-    <t>Iphone 6</t>
-  </si>
-  <si>
     <t>Iphone 6 +</t>
+  </si>
+  <si>
+    <t>Iphone6</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>132</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>147</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D769D30-1826-4393-B34E-54EC261457FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5577B1E-DD7E-4C15-B951-74654106A8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t>Téléphone</t>
   </si>
@@ -387,14 +387,203 @@
     <t>Iphone 6 +</t>
   </si>
   <si>
-    <t>Iphone6</t>
+    <t>Iphone 6</t>
+  </si>
+  <si>
+    <t>OnePlus 5</t>
+  </si>
+  <si>
+    <t>OnePlus 5T</t>
+  </si>
+  <si>
+    <t>OnePlus 6</t>
+  </si>
+  <si>
+    <t>OnePlus 6T</t>
+  </si>
+  <si>
+    <t>OnePlus 7</t>
+  </si>
+  <si>
+    <t>OnePlus 7 PRO</t>
+  </si>
+  <si>
+    <t>ONe Plus X</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 6</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 6X</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 7 / Mi 8</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9 / Mi 9 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi A2</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi A2 lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Mix 2</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Mix 2S</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Mix 3</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Max 2</t>
+  </si>
+  <si>
+    <t>Xiaomi 5 Plus</t>
+  </si>
+  <si>
+    <t>Xiaomi 6</t>
+  </si>
+  <si>
+    <t>Xiaomi 6A</t>
+  </si>
+  <si>
+    <t>Xiaomi 6 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 5 / Note 5 PRO</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 6 / Note 6 PRO</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 7 / Note 7 PRO</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 8</t>
+  </si>
+  <si>
+    <t>Zenfone 2</t>
+  </si>
+  <si>
+    <t>Zenfone 3</t>
+  </si>
+  <si>
+    <t>Zenfone 3 MAX</t>
+  </si>
+  <si>
+    <t>Zenfone 4 MAX</t>
+  </si>
+  <si>
+    <t>Zenfone 5</t>
+  </si>
+  <si>
+    <t>Zenfone 5 Lite</t>
+  </si>
+  <si>
+    <t>Zenfone 5Z</t>
+  </si>
+  <si>
+    <t>Zenfone Go</t>
+  </si>
+  <si>
+    <t>Zenfone Max Plus M1</t>
+  </si>
+  <si>
+    <t>Zenfone Max Pro M1</t>
+  </si>
+  <si>
+    <t>Selfie</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Motorola ONE</t>
+  </si>
+  <si>
+    <t>Nokia 3</t>
+  </si>
+  <si>
+    <t>Nokia 6 2018</t>
+  </si>
+  <si>
+    <t>Nokia 7 Plus</t>
+  </si>
+  <si>
+    <t>Nokia 8</t>
+  </si>
+  <si>
+    <t>Lumia 520</t>
+  </si>
+  <si>
+    <t>Lumia 610</t>
+  </si>
+  <si>
+    <t>Lumia 620</t>
+  </si>
+  <si>
+    <t>Lumia 630 / 635</t>
+  </si>
+  <si>
+    <t>Lumia 900</t>
+  </si>
+  <si>
+    <t>Lumia 920</t>
+  </si>
+  <si>
+    <t>Lumia 1320</t>
+  </si>
+  <si>
+    <t>IPHONE</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>HUAWEI</t>
+  </si>
+  <si>
+    <t>HONOR</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>ONEPLUS</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>MOTOROLA</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -410,8 +599,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,14 +637,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -480,15 +669,43 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,13 +713,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -808,1321 +1046,1735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="20">
         <v>145</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="20">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="19">
         <v>139</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="19">
         <v>151</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="19">
         <v>136</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="19">
         <v>142</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="19">
         <v>151</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="19">
         <v>115</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="19">
         <v>123</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="19">
         <v>120</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="19">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="19">
         <v>132</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="19">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="19">
         <v>147</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="19">
         <v>130</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="19">
         <v>151</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="21">
         <v>117</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="21">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="20">
         <v>134</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="20">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="19">
         <v>135</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="19">
         <v>63</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="19">
         <v>150</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="19">
         <v>132</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="19">
         <v>141</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="19">
         <v>140</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="19">
         <v>151</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="19">
         <v>140</v>
       </c>
-      <c r="C23">
+      <c r="D23" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="19">
         <v>149</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="19">
         <v>140</v>
       </c>
-      <c r="C25">
+      <c r="D25" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="19">
         <v>130</v>
       </c>
-      <c r="C26">
+      <c r="D26" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="19">
         <v>148</v>
       </c>
-      <c r="C27">
+      <c r="D27" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="19">
         <v>120</v>
       </c>
-      <c r="C28">
+      <c r="D28" s="19">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="19">
         <v>130</v>
       </c>
-      <c r="C29">
+      <c r="D29" s="19">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="19">
         <v>128</v>
       </c>
-      <c r="C30">
+      <c r="D30" s="19">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="19">
         <v>1310</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="19">
         <v>610</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B32">
+      <c r="C32" s="19">
         <v>139</v>
       </c>
-      <c r="C32">
+      <c r="D32" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33">
+      <c r="C33" s="19">
         <v>138</v>
       </c>
-      <c r="C33">
+      <c r="D33" s="19">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
+      <c r="C34" s="19">
         <v>138</v>
       </c>
-      <c r="C34">
+      <c r="D34" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B35">
+      <c r="C35" s="19">
         <v>148</v>
       </c>
-      <c r="C35">
+      <c r="D35" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36">
+      <c r="C36" s="19">
         <v>141</v>
       </c>
-      <c r="C36">
+      <c r="D36" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37">
+      <c r="C37" s="19">
         <v>145</v>
       </c>
-      <c r="C37">
+      <c r="D37" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B38">
+      <c r="C38" s="19">
         <v>149</v>
       </c>
-      <c r="C38">
+      <c r="D38" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B39">
+      <c r="C39" s="19">
         <v>150</v>
       </c>
-      <c r="C39">
+      <c r="D39" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40">
+      <c r="C40" s="19">
         <v>150</v>
       </c>
-      <c r="C40">
+      <c r="D40" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B41">
+      <c r="C41" s="19">
         <v>141</v>
       </c>
-      <c r="C41">
+      <c r="D41" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B42">
+      <c r="C42" s="19">
         <v>151</v>
       </c>
-      <c r="C42">
+      <c r="D42" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B43">
+      <c r="C43" s="19">
         <v>155</v>
       </c>
-      <c r="C43">
+      <c r="D43" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44">
+      <c r="C44" s="19">
         <v>129</v>
       </c>
-      <c r="C44">
+      <c r="D44" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45">
+      <c r="C45" s="19">
         <v>128</v>
       </c>
-      <c r="C45">
+      <c r="D45" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B46">
+      <c r="C46" s="19">
         <v>136</v>
       </c>
-      <c r="C46">
+      <c r="D46" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B47">
+      <c r="C47" s="19">
         <v>129</v>
       </c>
-      <c r="C47">
+      <c r="D47" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B48">
+      <c r="C48" s="19">
         <v>132</v>
       </c>
-      <c r="C48">
+      <c r="D48" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B49">
+      <c r="C49" s="19">
         <v>138</v>
       </c>
-      <c r="C49">
+      <c r="D49" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50">
+      <c r="C50" s="19">
         <v>137</v>
       </c>
-      <c r="C50">
+      <c r="D50" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B51">
+      <c r="C51" s="19">
         <v>152</v>
       </c>
-      <c r="C51">
+      <c r="D51" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B52">
+      <c r="C52" s="19">
         <v>144</v>
       </c>
-      <c r="C52">
+      <c r="D52" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53">
+      <c r="C53" s="19">
         <v>148</v>
       </c>
-      <c r="C53">
+      <c r="D53" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B54">
+      <c r="C54" s="19">
         <v>146</v>
       </c>
-      <c r="C54">
+      <c r="D54" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B55">
+      <c r="C55" s="19">
         <v>150</v>
       </c>
-      <c r="C55">
+      <c r="D55" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B56">
+      <c r="C56" s="19">
         <v>154</v>
       </c>
-      <c r="C56">
+      <c r="D56" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B57">
+      <c r="C57" s="19">
         <v>153</v>
       </c>
-      <c r="C57">
+      <c r="D57" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B58">
+      <c r="C58" s="19">
         <v>147</v>
       </c>
-      <c r="C58">
+      <c r="D58" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B59">
+      <c r="C59" s="19">
         <v>157</v>
       </c>
-      <c r="C59">
+      <c r="D59" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B60">
+      <c r="C60" s="19">
         <v>134</v>
       </c>
-      <c r="C60">
+      <c r="D60" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B61">
+      <c r="C61" s="19">
         <v>147</v>
       </c>
-      <c r="C61">
+      <c r="D61" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B62">
+      <c r="C62" s="19">
         <v>147</v>
       </c>
-      <c r="C62">
+      <c r="D62" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B63">
+      <c r="C63" s="19">
         <v>159</v>
       </c>
-      <c r="C63">
+      <c r="D63" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B64">
+      <c r="C64" s="19">
         <v>159</v>
       </c>
-      <c r="C64">
+      <c r="D64" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B65">
+      <c r="C65" s="19">
         <v>147</v>
       </c>
-      <c r="C65">
+      <c r="D65" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B66">
+      <c r="C66" s="19">
         <v>140</v>
       </c>
-      <c r="C66">
+      <c r="D66" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B67">
+      <c r="C67" s="19">
         <v>157</v>
       </c>
-      <c r="C67">
+      <c r="D67" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B68">
+      <c r="C68" s="21">
         <v>155</v>
       </c>
-      <c r="C68">
+      <c r="D68" s="21">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B69">
+      <c r="C69" s="20">
         <v>139</v>
       </c>
-      <c r="C69">
+      <c r="D69" s="20">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B70">
+      <c r="C70" s="19">
         <v>139</v>
       </c>
-      <c r="C70">
+      <c r="D70" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B71">
+      <c r="C71" s="19">
         <v>141</v>
       </c>
-      <c r="C71">
+      <c r="D71" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B72">
+      <c r="C72" s="19">
         <v>134</v>
       </c>
-      <c r="C72">
+      <c r="D72" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B73">
+      <c r="C73" s="19">
         <v>139</v>
       </c>
-      <c r="C73">
+      <c r="D73" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B74">
+      <c r="C74" s="19">
         <v>139</v>
       </c>
-      <c r="C74">
+      <c r="D74" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B75">
+      <c r="C75" s="19">
         <v>138</v>
       </c>
-      <c r="C75">
+      <c r="D75" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B76">
+      <c r="C76" s="19">
         <v>139</v>
       </c>
-      <c r="C76">
+      <c r="D76" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B77">
+      <c r="C77" s="19">
         <v>140</v>
       </c>
-      <c r="C77">
+      <c r="D77" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B78">
+      <c r="C78" s="19">
         <v>148</v>
       </c>
-      <c r="C78">
+      <c r="D78" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B79">
+      <c r="C79" s="19">
         <v>142</v>
       </c>
-      <c r="C79">
+      <c r="D79" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B80">
+      <c r="C80" s="19">
         <v>139</v>
       </c>
-      <c r="C80">
+      <c r="D80" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B81">
+      <c r="C81" s="19">
         <v>144</v>
       </c>
-      <c r="C81">
+      <c r="D81" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B82">
+      <c r="C82" s="19">
         <v>142</v>
       </c>
-      <c r="C82">
+      <c r="D82" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B83">
+      <c r="C83" s="19">
         <v>139</v>
       </c>
-      <c r="C83">
+      <c r="D83" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B84">
+      <c r="C84" s="19">
         <v>149</v>
       </c>
-      <c r="C84">
+      <c r="D84" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B85">
+      <c r="C85" s="19">
         <v>150</v>
       </c>
-      <c r="C85">
+      <c r="D85" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B86">
+      <c r="C86" s="19">
         <v>140</v>
       </c>
-      <c r="C86">
+      <c r="D86" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B87">
+      <c r="C87" s="19">
         <v>146</v>
       </c>
-      <c r="C87">
+      <c r="D87" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B88">
+      <c r="C88" s="19">
         <v>148</v>
       </c>
-      <c r="C88">
+      <c r="D88" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B89">
+      <c r="C89" s="19">
         <v>151</v>
       </c>
-      <c r="C89">
+      <c r="D89" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B90">
+      <c r="C90" s="19">
         <v>148</v>
       </c>
-      <c r="C90">
+      <c r="D90" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12"/>
+      <c r="B91" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B91">
+      <c r="C91" s="21">
         <v>150</v>
       </c>
-      <c r="C91">
+      <c r="D91" s="21">
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B92">
+      <c r="C92" s="20">
         <v>135</v>
       </c>
-      <c r="C92">
+      <c r="D92" s="20">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B93">
+      <c r="C93" s="19">
         <v>135</v>
       </c>
-      <c r="C93">
+      <c r="D93" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B94">
+      <c r="C94" s="19">
         <v>138</v>
       </c>
-      <c r="C94">
+      <c r="D94" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B95">
+      <c r="C95" s="19">
         <v>152</v>
       </c>
-      <c r="C95">
+      <c r="D95" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B96">
+      <c r="C96" s="19">
         <v>138</v>
       </c>
-      <c r="C96">
+      <c r="D96" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B97">
+      <c r="C97" s="19">
         <v>140</v>
       </c>
-      <c r="C97">
+      <c r="D97" s="19">
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B98">
+      <c r="C98" s="19">
         <v>150</v>
       </c>
-      <c r="C98">
+      <c r="D98" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B99">
+      <c r="C99" s="19">
         <v>140</v>
       </c>
-      <c r="C99">
+      <c r="D99" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B100">
+      <c r="C100" s="19">
         <v>141</v>
       </c>
-      <c r="C100">
+      <c r="D100" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B101">
+      <c r="C101" s="19">
         <v>153</v>
       </c>
-      <c r="C101">
+      <c r="D101" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12"/>
+      <c r="B102" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B102">
+      <c r="C102" s="21">
         <v>155</v>
       </c>
-      <c r="C102">
+      <c r="D102" s="21">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B103">
+      <c r="C103" s="20">
         <v>145</v>
       </c>
-      <c r="C103">
+      <c r="D103" s="20">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B104">
+      <c r="C104" s="19">
         <v>145</v>
       </c>
-      <c r="C104">
+      <c r="D104" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B105">
+      <c r="C105" s="19">
         <v>145</v>
       </c>
-      <c r="C105">
+      <c r="D105" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B106">
+      <c r="C106" s="19">
         <v>142</v>
       </c>
-      <c r="C106">
+      <c r="D106" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B107">
+      <c r="C107" s="19">
         <v>123</v>
       </c>
-      <c r="C107">
+      <c r="D107" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B108">
+      <c r="C108" s="19">
         <v>160</v>
       </c>
-      <c r="C108">
+      <c r="D108" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B109">
+      <c r="C109" s="19">
         <v>138</v>
       </c>
-      <c r="C109">
+      <c r="D109" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B110">
+      <c r="C110" s="19">
         <v>138</v>
       </c>
-      <c r="C110">
+      <c r="D110" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B111">
+      <c r="C111" s="19">
         <v>160</v>
       </c>
-      <c r="C111">
+      <c r="D111" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B112">
+      <c r="C112" s="19">
         <v>141</v>
       </c>
-      <c r="C112">
+      <c r="D112" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B113">
+      <c r="C113" s="19">
         <v>160</v>
       </c>
-      <c r="C113">
+      <c r="D113" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B114">
+      <c r="C114" s="19">
         <v>160</v>
       </c>
-      <c r="C114">
+      <c r="D114" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B115">
+      <c r="C115" s="19">
         <v>143</v>
       </c>
-      <c r="C115">
+      <c r="D115" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B116">
+      <c r="C116" s="19">
         <v>145</v>
       </c>
-      <c r="C116">
+      <c r="D116" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B117">
+      <c r="C117" s="19">
         <v>133</v>
       </c>
-      <c r="C117">
+      <c r="D117" s="19">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="12"/>
+      <c r="B118" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B118">
+      <c r="C118" s="21">
         <v>141</v>
       </c>
-      <c r="C118">
+      <c r="D118" s="21">
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+    <row r="119" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+    </row>
+    <row r="142" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B142" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B143" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B144" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="12"/>
+      <c r="B145" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="12"/>
+      <c r="B156" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="12"/>
+      <c r="B161" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F036F-4268-42DB-BD19-73F381BBA157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>telephone</t>
   </si>
@@ -377,40 +372,22 @@
   </si>
   <si>
     <t>XA1</t>
-  </si>
-  <si>
-    <t>XA1 Ultra</t>
-  </si>
-  <si>
-    <t>XA2</t>
-  </si>
-  <si>
-    <t>XZ</t>
-  </si>
-  <si>
-    <t>XZ1</t>
-  </si>
-  <si>
-    <t>XZ2</t>
-  </si>
-  <si>
-    <t>XZ3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -418,7 +395,22 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E3BC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -432,27 +424,9 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6E3BC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="5">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -466,7 +440,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -475,11 +448,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -494,72 +465,71 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="16">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -849,1980 +819,1277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" customHeight="1" ht="15.75">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="3">
         <v>145</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="1">
         <v>139</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="1">
         <v>151</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="1">
         <v>136</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="1">
         <v>142</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="1">
         <v>151</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="1">
         <v>115</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="1">
         <v>123</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="1">
         <v>120</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="1">
         <v>132</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="1">
         <v>147</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="1">
         <v>130</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="1">
         <v>151</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="5">
         <v>117</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" customHeight="1" ht="15.75">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="3">
         <v>134</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="1">
         <v>135</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="1">
         <v>150</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="1">
         <v>132</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="1">
         <v>141</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="1">
         <v>140</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="1">
         <v>151</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="1">
         <v>140</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:4">
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="1">
         <v>149</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:4">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="1">
         <v>140</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="1">
         <v>130</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="1">
         <v>148</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="B28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="1">
         <v>120</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="1">
         <v>130</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:4">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="1">
         <v>128</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:4">
+      <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="1">
         <v>1310</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:4">
+      <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="1">
         <v>139</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:4">
+      <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="1">
         <v>138</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="1">
         <v>138</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="1">
         <v>148</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="1">
         <v>141</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:4">
+      <c r="B37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="1">
         <v>145</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="1">
         <v>149</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:4">
+      <c r="B39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="1">
         <v>150</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:4">
+      <c r="B40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="1">
         <v>150</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:4">
+      <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="1">
         <v>141</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:4">
+      <c r="B42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="1">
         <v>151</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="1">
         <v>155</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="B44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="1">
         <v>129</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:4">
+      <c r="B45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="1">
         <v>128</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:4">
+      <c r="B46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="1">
         <v>136</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="B47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="1">
         <v>129</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:4">
+      <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="1">
         <v>132</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:4">
+      <c r="B49" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="1">
         <v>138</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:4">
+      <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="1">
         <v>137</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:4">
+      <c r="B51" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="1">
         <v>152</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:4">
+      <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="1">
         <v>144</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:4">
+      <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="1">
         <v>148</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:4">
+      <c r="B54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="1">
         <v>146</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:4">
+      <c r="B55" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="1">
         <v>150</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:4">
+      <c r="B56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="1">
         <v>154</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:4">
+      <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="1">
         <v>153</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:4">
+      <c r="B58" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="1">
         <v>147</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:4">
+      <c r="B59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="1">
         <v>157</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:4">
+      <c r="B60" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="1">
         <v>134</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:4">
+      <c r="B61" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="1">
         <v>147</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:4">
+      <c r="B62" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="1">
         <v>147</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:4">
+      <c r="B63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="1">
         <v>159</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:4">
+      <c r="B64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="1">
         <v>159</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:4">
+      <c r="B65" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="1">
         <v>147</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:4">
+      <c r="B66" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="1">
         <v>140</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:4">
+      <c r="B67" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="1">
         <v>157</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+    <row r="68" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B68" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="5">
         <v>155</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" customHeight="1" ht="15.75">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="3">
         <v>139</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="1:4">
+      <c r="B70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="1">
         <v>139</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="1:4">
+      <c r="B71" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="1">
         <v>141</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:4">
+      <c r="B72" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="1">
         <v>134</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="1:4">
+      <c r="B73" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="1">
         <v>139</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="1:4">
+      <c r="B74" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="1">
         <v>139</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="1:4">
+      <c r="B75" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="1">
         <v>138</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="1:4">
+      <c r="B76" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="1">
         <v>139</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:4">
+      <c r="B77" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="1">
         <v>140</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+    <row r="78" spans="1:4">
+      <c r="B78" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="1">
         <v>148</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="1:4">
+      <c r="B79" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="1">
         <v>142</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
+    <row r="80" spans="1:4">
+      <c r="B80" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="1">
         <v>139</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="1:4">
+      <c r="B81" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="1">
         <v>144</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="1:4">
+      <c r="B82" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="1">
         <v>142</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+    <row r="83" spans="1:4">
+      <c r="B83" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="1">
         <v>139</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
+    <row r="84" spans="1:4">
+      <c r="B84" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="1">
         <v>149</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="1:4">
+      <c r="B85" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="1">
         <v>150</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="1:4">
+      <c r="B86" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="1">
         <v>140</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="1:4">
+      <c r="B87" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="1">
         <v>146</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="1:4">
+      <c r="B88" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="1">
         <v>148</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="1:4">
+      <c r="B89" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="1">
         <v>151</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+    <row r="90" spans="1:4">
+      <c r="B90" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="1">
         <v>148</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
+    <row r="91" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B91" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="5">
         <v>150</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" customHeight="1" ht="15.75">
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="3">
         <v>135</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+    <row r="93" spans="1:4">
+      <c r="B93" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="1">
         <v>135</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="1:4">
+      <c r="B94" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="1">
         <v>138</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="1:4">
+      <c r="B95" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="1">
         <v>152</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+    <row r="96" spans="1:4">
+      <c r="B96" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="1">
         <v>138</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="1:4">
+      <c r="B97" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="1">
         <v>140</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="1:4">
+      <c r="B98" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="1">
         <v>150</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="1:4">
+      <c r="B99" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="1">
         <v>140</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
+    <row r="100" spans="1:4">
+      <c r="B100" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="1">
         <v>141</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="1:4">
+      <c r="B101" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="1">
         <v>153</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+    <row r="102" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B102" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="5">
         <v>155</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" customHeight="1" ht="15.75">
       <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="3">
         <v>145</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
+    <row r="104" spans="1:4">
+      <c r="B104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="1">
         <v>145</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
+    <row r="105" spans="1:4">
+      <c r="B105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="1">
         <v>145</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
+    <row r="106" spans="1:4">
+      <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="1">
         <v>142</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
+    <row r="107" spans="1:4">
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="1">
         <v>123</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
+    <row r="108" spans="1:4">
+      <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="1">
         <v>160</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
+    <row r="109" spans="1:4">
+      <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="1">
         <v>138</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
+    <row r="110" spans="1:4">
+      <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="1">
         <v>138</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
+    <row r="111" spans="1:4">
+      <c r="B111" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="1">
         <v>160</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
+    <row r="112" spans="1:4">
+      <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="1">
         <v>141</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" s="13">
-        <v>160</v>
-      </c>
-      <c r="D113" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="13">
-        <v>160</v>
-      </c>
-      <c r="D114" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C115" s="13">
-        <v>143</v>
-      </c>
-      <c r="D115" s="13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="13">
-        <v>145</v>
-      </c>
-      <c r="D116" s="13">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" s="13">
-        <v>133</v>
-      </c>
-      <c r="D117" s="13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="17">
-        <v>141</v>
-      </c>
-      <c r="D118" s="17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="18"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="18"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="18"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-    </row>
-    <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="18"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-    </row>
-    <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="18"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="18"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="18"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="18"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="18"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="18"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="18"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="18"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="18"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="18"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="18"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="18"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="18"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="18"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="18"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="18"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="18"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-    </row>
-    <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="18"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-    </row>
-    <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="18"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="18"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="18"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="18"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="18"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="18"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="18"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="18"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="18"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="18"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-    </row>
-    <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-    </row>
-    <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="18"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="18"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="18"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="18"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-    </row>
-    <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="18"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-    </row>
-    <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="18"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="18"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="18"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="18"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="18"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="18"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="18"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="18"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="18"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="18"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="18"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="18"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="18"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="18"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="18"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -15,22 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>Hauteur</t>
-  </si>
-  <si>
-    <t>Largeur</t>
-  </si>
-  <si>
-    <t>Iphone</t>
-  </si>
-  <si>
-    <t>Iphone 11 6.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>Iphone 11 Pro</t>
   </si>
@@ -348,30 +333,6 @@
   </si>
   <si>
     <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>Z5</t>
-  </si>
-  <si>
-    <t>Z5 Mini</t>
-  </si>
-  <si>
-    <t>Z5 Premium</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>XA</t>
-  </si>
-  <si>
-    <t>XA Ultra</t>
-  </si>
-  <si>
-    <t>XA1</t>
   </si>
 </sst>
 </file>
@@ -425,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -466,16 +427,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -516,12 +472,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -823,7 +773,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F116" sqref="F116"/>
@@ -832,215 +782,212 @@
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>145</v>
-      </c>
-      <c r="D2" s="3">
-        <v>70</v>
+      <c r="C2" s="1">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" customHeight="1" ht="15.75">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>147</v>
-      </c>
-      <c r="D12" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="13" t="s">
+      <c r="C14" s="3">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
-        <v>130</v>
-      </c>
-      <c r="D13" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="13" t="s">
+      <c r="C15" s="1">
+        <v>135</v>
+      </c>
+      <c r="D15" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <v>151</v>
-      </c>
-      <c r="D14" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
-        <v>117</v>
-      </c>
-      <c r="D15" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
-        <v>134</v>
-      </c>
-      <c r="D16" s="3">
-        <v>62</v>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D19" s="1">
         <v>59</v>
@@ -1048,98 +995,98 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <v>140</v>
       </c>
       <c r="D21" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>140</v>
       </c>
       <c r="D23" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D28" s="1">
         <v>56</v>
@@ -1147,98 +1094,98 @@
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>130</v>
+        <v>1310</v>
       </c>
       <c r="D29" s="1">
-        <v>61</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>1310</v>
+        <v>138</v>
       </c>
       <c r="D31" s="1">
-        <v>610</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D34" s="1">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D35" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D36" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1">
         <v>68</v>
@@ -1246,32 +1193,32 @@
     </row>
     <row r="38" spans="1:4">
       <c r="B38" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D40" s="1">
         <v>68</v>
@@ -1279,54 +1226,54 @@
     </row>
     <row r="41" spans="1:4">
       <c r="B41" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D41" s="1">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1">
         <v>58</v>
@@ -1334,387 +1281,387 @@
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D48" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D49" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D51" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D52" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D54" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D55" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="B56" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D57" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="B58" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="B60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>147</v>
+      </c>
+      <c r="D60" s="1">
         <v>63</v>
-      </c>
-      <c r="C60" s="1">
-        <v>134</v>
-      </c>
-      <c r="D60" s="1">
-        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="B61" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D61" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D62" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D63" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1">
+        <v>157</v>
+      </c>
+      <c r="D65" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B66" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="5">
+        <v>155</v>
+      </c>
+      <c r="D66" s="5">
         <v>68</v>
       </c>
-      <c r="C65" s="1">
-        <v>147</v>
-      </c>
-      <c r="D65" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" s="10" t="s">
+    </row>
+    <row r="67" spans="1:4" customHeight="1" ht="15.75">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="3">
+        <v>139</v>
+      </c>
+      <c r="D67" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="1">
-        <v>140</v>
-      </c>
-      <c r="D66" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" s="10" t="s">
+      <c r="C68" s="1">
+        <v>139</v>
+      </c>
+      <c r="D68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="1">
-        <v>157</v>
-      </c>
-      <c r="D67" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B68" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="5">
-        <v>155</v>
-      </c>
-      <c r="D68" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="3">
-        <v>139</v>
-      </c>
-      <c r="D69" s="3">
-        <v>66</v>
+      <c r="C69" s="1">
+        <v>141</v>
+      </c>
+      <c r="D69" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="B71" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="B72" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D72" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1">
         <v>139</v>
       </c>
       <c r="D74" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D77" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="B78" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D79" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D80" s="1">
         <v>63</v>
@@ -1722,21 +1669,21 @@
     </row>
     <row r="81" spans="1:4">
       <c r="B81" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C81" s="1">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D81" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="B82" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D82" s="1">
         <v>63</v>
@@ -1744,339 +1691,234 @@
     </row>
     <row r="83" spans="1:4">
       <c r="B83" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C83" s="1">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D83" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="B84" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C84" s="1">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D84" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="B86" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D86" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="B87" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C87" s="1">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D87" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="B88" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
         <v>148</v>
       </c>
       <c r="D88" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="5">
+        <v>150</v>
+      </c>
+      <c r="D89" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="B89" s="7" t="s">
+    <row r="90" spans="1:4" customHeight="1" ht="15.75">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="3">
+        <v>135</v>
+      </c>
+      <c r="D90" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="1">
-        <v>151</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C91" s="1">
+        <v>135</v>
+      </c>
+      <c r="D91" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="B90" s="7" t="s">
+    <row r="92" spans="1:4">
+      <c r="B92" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="1">
-        <v>148</v>
-      </c>
-      <c r="D90" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B91" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="5">
-        <v>150</v>
-      </c>
-      <c r="D91" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="3">
-        <v>135</v>
-      </c>
-      <c r="D92" s="3">
-        <v>66</v>
+      <c r="C92" s="1">
+        <v>138</v>
+      </c>
+      <c r="D92" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="B93" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D93" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="B94" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1">
         <v>138</v>
       </c>
       <c r="D94" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="B95" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95" s="1">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D95" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="B96" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96" s="1">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D96" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="B97" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C97" s="1">
         <v>140</v>
       </c>
       <c r="D97" s="1">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="B98" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C98" s="1">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D98" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C99" s="1">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D99" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="B100" s="7" t="s">
+    <row r="100" spans="1:4" customHeight="1" ht="15.75">
+      <c r="B100" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="5">
+        <v>155</v>
+      </c>
+      <c r="D100" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" customHeight="1" ht="15.75">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="3">
+        <v>145</v>
+      </c>
+      <c r="D101" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="1">
-        <v>141</v>
-      </c>
-      <c r="D100" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="B101" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="1">
-        <v>153</v>
-      </c>
-      <c r="D101" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B102" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="5">
-        <v>155</v>
-      </c>
-      <c r="D102" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A103" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="C102" s="1">
         <v>145</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D102" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="B104" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="1">
-        <v>145</v>
-      </c>
-      <c r="D104" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="B105" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="1">
-        <v>145</v>
-      </c>
-      <c r="D105" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="B106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="1">
-        <v>142</v>
-      </c>
-      <c r="D106" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="B107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" s="1">
-        <v>123</v>
-      </c>
-      <c r="D107" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="B108" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="1">
-        <v>160</v>
-      </c>
-      <c r="D108" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="B109" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="1">
-        <v>138</v>
-      </c>
-      <c r="D109" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="B110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="1">
-        <v>138</v>
-      </c>
-      <c r="D110" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="B111" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C111" s="1">
-        <v>160</v>
-      </c>
-      <c r="D111" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="B112" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="1">
-        <v>141</v>
-      </c>
-      <c r="D112" s="1">
-        <v>58</v>
-      </c>
+    <row r="103" spans="1:4">
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,51 +1,361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C82464-B43A-4144-8668-25BA776100E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+  <si>
+    <t>Modèle</t>
+  </si>
+  <si>
+    <t>Hauteur</t>
+  </si>
+  <si>
+    <t>Largeur</t>
+  </si>
+  <si>
+    <t>IPHONE</t>
+  </si>
+  <si>
+    <t>IPHONE11</t>
+  </si>
+  <si>
+    <t>IPHONE11PRO</t>
+  </si>
+  <si>
+    <t>IPHONE11PROMAX</t>
+  </si>
+  <si>
+    <t>IPHONEX</t>
+  </si>
+  <si>
+    <t>IPHONEXR</t>
+  </si>
+  <si>
+    <t>IPHONEXSMAX</t>
+  </si>
+  <si>
+    <t>IPHONE4</t>
+  </si>
+  <si>
+    <t>IPHONESE</t>
+  </si>
+  <si>
+    <t>IPHONE5</t>
+  </si>
+  <si>
+    <t>IPHONE5C</t>
+  </si>
+  <si>
+    <t>IPHONE6</t>
+  </si>
+  <si>
+    <t>IPHONE6+</t>
+  </si>
+  <si>
+    <t>IPHONE8</t>
+  </si>
+  <si>
+    <t>IPHONE7</t>
+  </si>
+  <si>
+    <t>IPHONE8+</t>
+  </si>
+  <si>
+    <t>IPHONE7+</t>
+  </si>
+  <si>
+    <t>IPODTOUCH6</t>
+  </si>
   <si>
     <t>Samsung</t>
   </si>
   <si>
+    <t>GALAXYS6</t>
+  </si>
+  <si>
+    <t>GALAXYS6EDGE</t>
+  </si>
+  <si>
+    <t>GALAXYS6EDGE+</t>
+  </si>
+  <si>
+    <t>GALAXYS7</t>
+  </si>
+  <si>
+    <t>GALAXYS7EDGE</t>
+  </si>
+  <si>
+    <t>GALAXYS8</t>
+  </si>
+  <si>
+    <t>GALAXYS8+</t>
+  </si>
+  <si>
+    <t>GALAXYS9</t>
+  </si>
+  <si>
+    <t>GALAXYS9+</t>
+  </si>
+  <si>
+    <t>GALAXYS10</t>
+  </si>
+  <si>
+    <t>GALAXYS10E</t>
+  </si>
+  <si>
+    <t>GALAXYS10+</t>
+  </si>
+  <si>
+    <t>GALAXYA3</t>
+  </si>
+  <si>
+    <t>GALAXYA32016</t>
+  </si>
+  <si>
+    <t>GALAXYA32017</t>
+  </si>
+  <si>
+    <t>GALAXYA5</t>
+  </si>
+  <si>
+    <t>GALAXYA52016</t>
+  </si>
+  <si>
+    <t>GALAXYA52017</t>
+  </si>
+  <si>
+    <t>GALAXYA62018</t>
+  </si>
+  <si>
+    <t>GALAXYA6+2018</t>
+  </si>
+  <si>
+    <t>GALAXYA7</t>
+  </si>
+  <si>
+    <t>GALAXYA72016</t>
+  </si>
+  <si>
+    <t>GALAXYA72017</t>
+  </si>
+  <si>
+    <t>GALAXYA72018</t>
+  </si>
+  <si>
+    <t>GALAXYA8</t>
+  </si>
+  <si>
+    <t>GALAXYA82018</t>
+  </si>
+  <si>
+    <t>GALAXYA8+2018</t>
+  </si>
+  <si>
+    <t>GALAXYA9</t>
+  </si>
+  <si>
+    <t>GALAXYJ3</t>
+  </si>
+  <si>
+    <t>GALAXYJ32016</t>
+  </si>
+  <si>
+    <t>GALAXYJ32017</t>
+  </si>
+  <si>
+    <t>GALAXYJ5</t>
+  </si>
+  <si>
+    <t>GALAXYJ52016</t>
+  </si>
+  <si>
+    <t>GALAXYJ52017</t>
+  </si>
+  <si>
+    <t>GALAXYJ6</t>
+  </si>
+  <si>
+    <t>GALAXYJ6+</t>
+  </si>
+  <si>
+    <t>GALAXYJ7</t>
+  </si>
+  <si>
+    <t>GALAXYJ72016</t>
+  </si>
+  <si>
+    <t>GALAXYJ72017</t>
+  </si>
+  <si>
+    <t>GALAXYJ82018</t>
+  </si>
+  <si>
+    <t>GALAXYNote8</t>
+  </si>
+  <si>
+    <t>GALAXYNote9</t>
+  </si>
+  <si>
+    <t>GALAXYNote10</t>
+  </si>
+  <si>
+    <t>GALAXYNote10+</t>
+  </si>
+  <si>
+    <t>GALAXYGRANDPRIME</t>
+  </si>
+  <si>
+    <t>GALAXYA10</t>
+  </si>
+  <si>
+    <t>GALAXYA10E</t>
+  </si>
+  <si>
+    <t>GALAXYA20</t>
+  </si>
+  <si>
+    <t>GALAXYA30</t>
+  </si>
+  <si>
+    <t>GALAXYA20E</t>
+  </si>
+  <si>
+    <t>GALAXYA40</t>
+  </si>
+  <si>
+    <t>GALAXYA50</t>
+  </si>
+  <si>
+    <t>GALAXYA70</t>
+  </si>
+  <si>
     <t>Huawei</t>
   </si>
   <si>
     <t>P8</t>
   </si>
   <si>
+    <t>P8LITE</t>
+  </si>
+  <si>
+    <t>P8LITE2017</t>
+  </si>
+  <si>
     <t>P9</t>
   </si>
   <si>
+    <t>P9LITE</t>
+  </si>
+  <si>
+    <t>P9+</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P10LITE</t>
+  </si>
+  <si>
     <t>P20</t>
   </si>
   <si>
+    <t>P20PRO</t>
+  </si>
+  <si>
+    <t>P20LITE</t>
+  </si>
+  <si>
     <t>P30</t>
   </si>
   <si>
+    <t>P30PRO</t>
+  </si>
+  <si>
+    <t>P30LITE</t>
+  </si>
+  <si>
     <t>Psmart</t>
   </si>
   <si>
+    <t>Psmart2019</t>
+  </si>
+  <si>
+    <t>MATE9</t>
+  </si>
+  <si>
+    <t>MATE10</t>
+  </si>
+  <si>
+    <t>MATE10PRO</t>
+  </si>
+  <si>
+    <t>MATE10LITE</t>
+  </si>
+  <si>
+    <t>MATE20</t>
+  </si>
+  <si>
+    <t>MATE20PRO</t>
+  </si>
+  <si>
+    <t>MATE20LITE</t>
+  </si>
+  <si>
     <t>Honor</t>
   </si>
   <si>
+    <t>Honor6</t>
+  </si>
+  <si>
+    <t>Honor7</t>
+  </si>
+  <si>
+    <t>Honor8</t>
+  </si>
+  <si>
+    <t>Honor8X</t>
+  </si>
+  <si>
+    <t>Honor9</t>
+  </si>
+  <si>
+    <t>Honor10</t>
+  </si>
+  <si>
+    <t>Honor10LITE</t>
+  </si>
+  <si>
+    <t>Y52019</t>
+  </si>
+  <si>
+    <t>Y62018</t>
+  </si>
+  <si>
+    <t>Y72019</t>
+  </si>
+  <si>
+    <t>Y72018</t>
+  </si>
+  <si>
+    <t>Y62019</t>
+  </si>
+  <si>
+    <t>View20</t>
+  </si>
+  <si>
     <t>Sony</t>
   </si>
   <si>
@@ -55,57 +365,33 @@
     <t>L2</t>
   </si>
   <si>
-    <t>P9+</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>Psmart2019</t>
-  </si>
-  <si>
-    <t>Honor6</t>
-  </si>
-  <si>
-    <t>Honor7</t>
-  </si>
-  <si>
-    <t>Honor8</t>
-  </si>
-  <si>
-    <t>Honor8X</t>
-  </si>
-  <si>
-    <t>Honor9</t>
-  </si>
-  <si>
-    <t>Honor10</t>
-  </si>
-  <si>
-    <t>Y52019</t>
-  </si>
-  <si>
-    <t>Y62018</t>
-  </si>
-  <si>
-    <t>Y62019</t>
-  </si>
-  <si>
-    <t>View20</t>
+    <t>L3</t>
   </si>
   <si>
     <t>Z5</t>
   </si>
   <si>
+    <t>Z5MINI</t>
+  </si>
+  <si>
+    <t>Z5PREMIUM</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
     <t>XA</t>
   </si>
   <si>
+    <t>XAULTRA</t>
+  </si>
+  <si>
     <t>XA1</t>
   </si>
   <si>
+    <t>XA1ULTRA</t>
+  </si>
+  <si>
     <t>XA2</t>
   </si>
   <si>
@@ -121,317 +407,34 @@
     <t>XZ3</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>Modèle</t>
-  </si>
-  <si>
-    <t>Hauteur</t>
-  </si>
-  <si>
-    <t>Largeur</t>
-  </si>
-  <si>
-    <t>IPHONE11</t>
-  </si>
-  <si>
-    <t>IPHONE</t>
-  </si>
-  <si>
-    <t>IPHONEX</t>
-  </si>
-  <si>
-    <t>IPHONEXSMAX</t>
-  </si>
-  <si>
-    <t>IPHONE4</t>
-  </si>
-  <si>
-    <t>IPHONE5</t>
-  </si>
-  <si>
-    <t>IPHONE5C</t>
-  </si>
-  <si>
-    <t>IPHONE6</t>
-  </si>
-  <si>
-    <t>IPHONE6+</t>
-  </si>
-  <si>
-    <t>IPHONE7</t>
-  </si>
-  <si>
-    <t>IPHONE7+</t>
-  </si>
-  <si>
-    <t>IPODTOUCH6</t>
-  </si>
-  <si>
-    <t>GALAXYS6</t>
-  </si>
-  <si>
-    <t>GALAXYS7</t>
-  </si>
-  <si>
-    <t>GALAXYS8</t>
-  </si>
-  <si>
-    <t>GALAXYS8+</t>
-  </si>
-  <si>
-    <t>GALAXYS9</t>
-  </si>
-  <si>
-    <t>GALAXYS9+</t>
-  </si>
-  <si>
-    <t>GALAXYS10</t>
-  </si>
-  <si>
-    <t>GALAXYS10E</t>
-  </si>
-  <si>
-    <t>GALAXYS10+</t>
-  </si>
-  <si>
-    <t>GALAXYA3</t>
-  </si>
-  <si>
-    <t>GALAXYA32016</t>
-  </si>
-  <si>
-    <t>GALAXYA32017</t>
-  </si>
-  <si>
-    <t>GALAXYA5</t>
-  </si>
-  <si>
-    <t>GALAXYA52016</t>
-  </si>
-  <si>
-    <t>GALAXYA52017</t>
-  </si>
-  <si>
-    <t>GALAXYA62018</t>
-  </si>
-  <si>
-    <t>GALAXYA6+2018</t>
-  </si>
-  <si>
-    <t>GALAXYA7</t>
-  </si>
-  <si>
-    <t>GALAXYA72016</t>
-  </si>
-  <si>
-    <t>GALAXYA72017</t>
-  </si>
-  <si>
-    <t>GALAXYA72018</t>
-  </si>
-  <si>
-    <t>GALAXYA8</t>
-  </si>
-  <si>
-    <t>GALAXYA82018</t>
-  </si>
-  <si>
-    <t>GALAXYA8+2018</t>
-  </si>
-  <si>
-    <t>GALAXYA9</t>
-  </si>
-  <si>
-    <t>GALAXYJ3</t>
-  </si>
-  <si>
-    <t>GALAXYJ32016</t>
-  </si>
-  <si>
-    <t>GALAXYJ32017</t>
-  </si>
-  <si>
-    <t>GALAXYJ5</t>
-  </si>
-  <si>
-    <t>GALAXYJ52016</t>
-  </si>
-  <si>
-    <t>GALAXYJ52017</t>
-  </si>
-  <si>
-    <t>GALAXYJ6</t>
-  </si>
-  <si>
-    <t>GALAXYJ6+</t>
-  </si>
-  <si>
-    <t>GALAXYJ7</t>
-  </si>
-  <si>
-    <t>GALAXYJ72016</t>
-  </si>
-  <si>
-    <t>GALAXYJ72017</t>
-  </si>
-  <si>
-    <t>GALAXYJ82018</t>
-  </si>
-  <si>
-    <t>GALAXYNote8</t>
-  </si>
-  <si>
-    <t>GALAXYNote9</t>
-  </si>
-  <si>
-    <t>GALAXYNote10</t>
-  </si>
-  <si>
-    <t>GALAXYNote10+</t>
-  </si>
-  <si>
-    <t>GALAXYS6EDGE</t>
-  </si>
-  <si>
-    <t>GALAXYS6EDGE+</t>
-  </si>
-  <si>
-    <t>GALAXYS7EDGE</t>
-  </si>
-  <si>
-    <t>GALAXYGRANDPRIME</t>
-  </si>
-  <si>
-    <t>P8LITE</t>
-  </si>
-  <si>
-    <t>P8LITE2017</t>
-  </si>
-  <si>
-    <t>P9LITE</t>
-  </si>
-  <si>
-    <t>P10LITE</t>
-  </si>
-  <si>
-    <t>P20LITE</t>
-  </si>
-  <si>
-    <t>P30LITE</t>
-  </si>
-  <si>
-    <t>Honor10LITE</t>
-  </si>
-  <si>
-    <t>IPHONE8</t>
-  </si>
-  <si>
-    <t>IPHONE8+</t>
-  </si>
-  <si>
-    <t>IPHONESE</t>
-  </si>
-  <si>
-    <t>IPHONE11PRO</t>
-  </si>
-  <si>
-    <t>P20PRO</t>
-  </si>
-  <si>
-    <t>P30PRO</t>
-  </si>
-  <si>
-    <t>IPHONE11PROMAX</t>
-  </si>
-  <si>
-    <t>Z5MINI</t>
-  </si>
-  <si>
-    <t>Z5PREMIUM</t>
-  </si>
-  <si>
-    <t>XAULTRA</t>
-  </si>
-  <si>
-    <t>XA1ULTRA</t>
-  </si>
-  <si>
-    <t>IPHONEXR</t>
-  </si>
-  <si>
     <t>MUG</t>
-  </si>
-  <si>
-    <t>GALAXYA10</t>
-  </si>
-  <si>
-    <t>GALAXYA20</t>
-  </si>
-  <si>
-    <t>GALAXYA30</t>
-  </si>
-  <si>
-    <t>GALAXYA40</t>
-  </si>
-  <si>
-    <t>GALAXYA50</t>
-  </si>
-  <si>
-    <t>GALAXYA70</t>
-  </si>
-  <si>
-    <t>Y72018</t>
-  </si>
-  <si>
-    <t>GALAXYA20E</t>
-  </si>
-  <si>
-    <t>GALAXYA10E</t>
-  </si>
-  <si>
-    <t>Y72019</t>
-  </si>
-  <si>
-    <t>MATE9</t>
-  </si>
-  <si>
-    <t>MATE10</t>
-  </si>
-  <si>
-    <t>MATE10PRO</t>
-  </si>
-  <si>
-    <t>MATE10LITE</t>
-  </si>
-  <si>
-    <t>MATE20</t>
-  </si>
-  <si>
-    <t>MATE20PRO</t>
-  </si>
-  <si>
-    <t>MATE20LITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -457,21 +460,9 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="6">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -485,7 +476,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -494,11 +484,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -513,22 +501,6 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -540,62 +512,95 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -885,35 +890,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="19" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C2" s="19">
         <v>145</v>
@@ -922,9 +930,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customHeight="1" ht="15.75">
       <c r="B3" s="18" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>139</v>
@@ -933,9 +941,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" s="13" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>151</v>
@@ -944,9 +952,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>136</v>
@@ -955,9 +963,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="13" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>142</v>
@@ -966,9 +974,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>151</v>
@@ -977,9 +985,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>115</v>
@@ -988,9 +996,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>123</v>
@@ -999,9 +1007,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>123</v>
@@ -1010,9 +1018,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>120</v>
@@ -1021,9 +1029,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>132</v>
@@ -1032,9 +1040,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>147</v>
@@ -1043,9 +1051,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="13" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>130</v>
@@ -1054,9 +1062,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>130</v>
@@ -1065,9 +1073,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="13" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>151</v>
@@ -1076,9 +1084,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="B17" s="13" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>151</v>
@@ -1087,9 +1095,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" customHeight="1" ht="15.75">
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5">
         <v>117</v>
@@ -1098,12 +1106,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" customHeight="1" ht="15.75">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
         <v>134</v>
@@ -1112,9 +1120,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="B20" s="10" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>135</v>
@@ -1123,9 +1131,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -1134,9 +1142,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" s="10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>132</v>
@@ -1145,9 +1153,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>141</v>
@@ -1156,9 +1164,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="B24" s="10" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>140</v>
@@ -1167,9 +1175,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" s="10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>151</v>
@@ -1178,9 +1186,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="B26" s="10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>140</v>
@@ -1189,9 +1197,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="B27" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>149</v>
@@ -1200,9 +1208,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" s="10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>140</v>
@@ -1211,9 +1219,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="B29" s="10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>130</v>
@@ -1222,9 +1230,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="B30" s="10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <v>148</v>
@@ -1233,9 +1241,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="B31" s="10" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>120</v>
@@ -1244,9 +1252,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>130</v>
@@ -1255,9 +1263,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>128</v>
@@ -1266,9 +1274,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34" s="10" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>131</v>
@@ -1277,9 +1285,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" s="10" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>139</v>
@@ -1288,9 +1296,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>138</v>
@@ -1299,9 +1307,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <v>138</v>
@@ -1310,9 +1318,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>148</v>
@@ -1321,9 +1329,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39" s="10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
         <v>141</v>
@@ -1332,9 +1340,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40" s="10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <v>145</v>
@@ -1343,9 +1351,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41" s="10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <v>149</v>
@@ -1354,9 +1362,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42" s="10" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <v>150</v>
@@ -1365,9 +1373,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="B43" s="10" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <v>150</v>
@@ -1376,9 +1384,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="B44" s="10" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>141</v>
@@ -1387,9 +1395,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45" s="10" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
         <v>151</v>
@@ -1398,9 +1406,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46" s="10" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
         <v>155</v>
@@ -1409,9 +1417,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47" s="10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
         <v>129</v>
@@ -1420,9 +1428,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="B48" s="10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>128</v>
@@ -1431,9 +1439,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="B49" s="10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1">
         <v>136</v>
@@ -1442,9 +1450,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="B50" s="10" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1">
         <v>129</v>
@@ -1453,9 +1461,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="B51" s="10" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1">
         <v>132</v>
@@ -1464,9 +1472,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="B52" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
         <v>138</v>
@@ -1475,9 +1483,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="B53" s="10" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
         <v>137</v>
@@ -1486,9 +1494,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1">
         <v>152</v>
@@ -1497,9 +1505,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="B55" s="10" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1">
         <v>144</v>
@@ -1508,9 +1516,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="B56" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1">
         <v>148</v>
@@ -1519,9 +1527,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57" s="10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1">
         <v>146</v>
@@ -1530,9 +1538,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="B58" s="10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1">
         <v>150</v>
@@ -1541,9 +1549,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="B59" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1">
         <v>154</v>
@@ -1552,9 +1560,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="B60" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1">
         <v>153</v>
@@ -1563,9 +1571,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="B61" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1">
         <v>147</v>
@@ -1574,9 +1582,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62" s="10" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1">
         <v>157</v>
@@ -1585,9 +1593,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="B63" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1">
         <v>134</v>
@@ -1596,9 +1604,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="B64" s="10" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1">
         <v>147</v>
@@ -1607,9 +1615,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="B65" s="10" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1">
         <v>152</v>
@@ -1618,9 +1626,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="B66" s="10" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1">
         <v>159</v>
@@ -1629,9 +1637,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="B67" s="10" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
         <v>159</v>
@@ -1640,9 +1648,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="B68" s="10" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
         <v>147</v>
@@ -1651,9 +1659,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="B69" s="10" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1">
         <v>140</v>
@@ -1662,9 +1670,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="B70" s="10" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C70" s="1">
         <v>157</v>
@@ -1673,9 +1681,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" customHeight="1" ht="15.75">
       <c r="B71" s="9" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C71" s="5">
         <v>155</v>
@@ -1684,12 +1692,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" customHeight="1" ht="15.75">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C72" s="3">
         <v>139</v>
@@ -1698,9 +1706,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="B73" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1">
         <v>139</v>
@@ -1709,9 +1717,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="B74" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1">
         <v>141</v>
@@ -1720,9 +1728,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="B75" s="7" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1">
         <v>134</v>
@@ -1731,9 +1739,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="B76" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1">
         <v>139</v>
@@ -1742,9 +1750,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="B77" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1">
         <v>139</v>
@@ -1753,9 +1761,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="B78" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1">
         <v>138</v>
@@ -1764,9 +1772,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="B79" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1">
         <v>139</v>
@@ -1775,9 +1783,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="B80" s="7" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1">
         <v>140</v>
@@ -1786,9 +1794,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="B81" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C81" s="1">
         <v>148</v>
@@ -1797,9 +1805,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="B82" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1">
         <v>142</v>
@@ -1808,9 +1816,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="B83" s="7" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1">
         <v>139</v>
@@ -1819,9 +1827,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="B84" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C84" s="1">
         <v>144</v>
@@ -1830,9 +1838,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="B85" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1">
         <v>142</v>
@@ -1841,9 +1849,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="B86" s="7" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1">
         <v>139</v>
@@ -1852,9 +1860,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="B87" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1">
         <v>149</v>
@@ -1863,9 +1871,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="B88" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C88" s="1">
         <v>150</v>
@@ -1874,9 +1882,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="B89" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1">
         <v>140</v>
@@ -1885,9 +1893,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="B90" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1">
         <v>146</v>
@@ -1896,9 +1904,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="B91" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1">
         <v>148</v>
@@ -1907,9 +1915,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="B92" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1">
         <v>151</v>
@@ -1918,9 +1926,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="B93" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C93" s="1">
         <v>148</v>
@@ -1929,9 +1937,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" customHeight="1" ht="15.75">
       <c r="B94" s="6" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C94" s="5">
         <v>150</v>
@@ -1940,12 +1948,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" customHeight="1" ht="15.75">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C95" s="3">
         <v>135</v>
@@ -1954,9 +1962,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="B96" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C96" s="1">
         <v>135</v>
@@ -1965,9 +1973,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="B97" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C97" s="1">
         <v>138</v>
@@ -1976,9 +1984,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="B98" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C98" s="1">
         <v>152</v>
@@ -1987,9 +1995,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="B99" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C99" s="1">
         <v>138</v>
@@ -1998,9 +2006,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="B100" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C100" s="1">
         <v>140</v>
@@ -2009,9 +2017,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="B101" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1">
         <v>150</v>
@@ -2020,9 +2028,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="B102" s="7" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C102" s="1">
         <v>140</v>
@@ -2031,9 +2039,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="B103" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C103" s="1">
         <v>141</v>
@@ -2042,9 +2050,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="B104" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C104" s="1">
         <v>163</v>
@@ -2053,9 +2061,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="B105" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C105" s="1">
         <v>159</v>
@@ -2064,9 +2072,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="B106" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C106" s="1">
         <v>153</v>
@@ -2075,9 +2083,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" customHeight="1" ht="15.75">
       <c r="B107" s="6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C107" s="5">
         <v>155</v>
@@ -2086,12 +2094,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" customHeight="1" ht="15.75">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C108" s="3">
         <v>145</v>
@@ -2100,9 +2108,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" customHeight="1" ht="15.75">
       <c r="B109" s="4" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C109" s="3">
         <v>156</v>
@@ -2111,9 +2119,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="B110" s="2" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C110" s="1">
         <v>152</v>
@@ -2122,9 +2130,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="B111" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1">
         <v>142</v>
@@ -2133,9 +2141,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="B112" s="14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C112" s="15">
         <v>123</v>
@@ -2144,9 +2152,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="B113" s="16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C113" s="17">
         <v>160</v>
@@ -2155,9 +2163,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="B114" s="16" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C114" s="17">
         <v>138</v>
@@ -2166,9 +2174,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="B115" s="16" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C115" s="17">
         <v>138</v>
@@ -2177,9 +2185,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="B116" s="16" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C116" s="17">
         <v>160</v>
@@ -2188,9 +2196,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="B117" s="16" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C117" s="17">
         <v>141</v>
@@ -2199,9 +2207,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="B118" s="16" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C118" s="17">
         <v>160</v>
@@ -2210,9 +2218,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="B119" s="16" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="C119" s="17">
         <v>160</v>
@@ -2221,9 +2229,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="B120" s="16" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="C120" s="17">
         <v>143</v>
@@ -2232,9 +2240,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="B121" s="16" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C121" s="17">
         <v>145</v>
@@ -2243,9 +2251,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="B122" s="16" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C122" s="17">
         <v>133</v>
@@ -2254,9 +2262,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="B123" s="16" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="C123" s="17">
         <v>141</v>
@@ -2265,9 +2273,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="B124" s="21" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C124" s="22">
         <v>180</v>
@@ -2277,7 +2285,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80492CD-361D-4DEC-946C-13FD63AF83EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Modèle</t>
   </si>
@@ -287,12 +292,6 @@
     <t>P30LITE</t>
   </si>
   <si>
-    <t>Psmart</t>
-  </si>
-  <si>
-    <t>Psmart2019</t>
-  </si>
-  <si>
     <t>MATE9</t>
   </si>
   <si>
@@ -408,19 +407,35 @@
   </si>
   <si>
     <t>MUG</t>
+  </si>
+  <si>
+    <t>PSMART</t>
+  </si>
+  <si>
+    <t>PSMART2019</t>
+  </si>
+  <si>
+    <t>IPHONE6S</t>
+  </si>
+  <si>
+    <t>IPHONE6S+</t>
+  </si>
+  <si>
+    <t>IPODTOUCH5</t>
+  </si>
+  <si>
+    <t>IPOD4</t>
+  </si>
+  <si>
+    <t>IPOD5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -431,10 +446,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -462,7 +474,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -476,6 +494,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -484,9 +503,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -501,6 +522,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -512,95 +534,68 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -890,22 +885,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -916,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -930,7 +922,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customHeight="1" ht="15.75">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
@@ -941,7 +933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -952,7 +944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -963,7 +955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
@@ -974,7 +966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
@@ -985,7 +977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
@@ -996,7 +988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1029,1273 +1021,1315 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="19">
+        <v>132</v>
+      </c>
+      <c r="D12" s="19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>132</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="19">
+        <v>147</v>
+      </c>
+      <c r="D14" s="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="1">
         <v>147</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D15" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <v>130</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="13" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="1">
         <v>130</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D17" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="13" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
         <v>151</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D18" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="13" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <v>151</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D19" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B18" s="12" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="15">
+        <v>117</v>
+      </c>
+      <c r="D20" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C23" s="5">
         <v>117</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D23" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A19" t="s">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C24" s="3">
         <v>134</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D24" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="10" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C25" s="1">
         <v>135</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D25" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="10" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C26" s="1">
         <v>150</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D26" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="10" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C27" s="1">
         <v>132</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D27" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="10" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C28" s="1">
         <v>141</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D28" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="10" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C29" s="1">
         <v>140</v>
-      </c>
-      <c r="D24" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>151</v>
-      </c>
-      <c r="D25" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1">
-        <v>140</v>
-      </c>
-      <c r="D26" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1">
-        <v>149</v>
-      </c>
-      <c r="D27" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1">
-        <v>140</v>
-      </c>
-      <c r="D28" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1">
-        <v>130</v>
       </c>
       <c r="D29" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <v>140</v>
+      </c>
+      <c r="D31" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>140</v>
+      </c>
+      <c r="D33" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C35" s="1">
         <v>148</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D35" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="10" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C36" s="1">
         <v>120</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D36" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="10" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C37" s="1">
         <v>130</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D37" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="10" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C38" s="1">
         <v>128</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D38" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="B34" s="10" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C39" s="1">
         <v>131</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D39" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="B35" s="10" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C40" s="1">
         <v>139</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D40" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="10" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C41" s="1">
         <v>138</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D41" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="10" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C42" s="1">
         <v>138</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D42" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="10" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C43" s="1">
         <v>148</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D43" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="B39" s="10" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C39" s="1">
-        <v>141</v>
-      </c>
-      <c r="D39" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="1">
-        <v>145</v>
-      </c>
-      <c r="D40" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="1">
-        <v>149</v>
-      </c>
-      <c r="D41" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="1">
-        <v>150</v>
-      </c>
-      <c r="D42" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1">
-        <v>150</v>
-      </c>
-      <c r="D43" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>141</v>
       </c>
       <c r="D44" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D45" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D46" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D49" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>155</v>
+      </c>
+      <c r="D51" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>129</v>
+      </c>
+      <c r="D52" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>128</v>
+      </c>
+      <c r="D53" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>136</v>
+      </c>
+      <c r="D54" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C55" s="1">
         <v>129</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D55" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="B51" s="10" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C56" s="1">
         <v>132</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D56" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="10" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C57" s="1">
         <v>138</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D57" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="B53" s="10" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C58" s="1">
         <v>137</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D58" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="B54" s="10" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C59" s="1">
         <v>152</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D59" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="B55" s="10" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C60" s="1">
         <v>144</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D60" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="B56" s="10" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C61" s="1">
         <v>148</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D61" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="10" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C62" s="1">
         <v>146</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D62" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="10" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C63" s="1">
         <v>150</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D63" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="10" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C64" s="1">
         <v>154</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D64" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="B60" s="10" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C65" s="1">
         <v>153</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D65" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="10" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C66" s="1">
         <v>147</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D66" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="10" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C67" s="1">
         <v>157</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D67" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="10" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C68" s="1">
         <v>134</v>
-      </c>
-      <c r="D63" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="1">
-        <v>147</v>
-      </c>
-      <c r="D64" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="B65" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="1">
-        <v>152</v>
-      </c>
-      <c r="D65" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="1">
-        <v>159</v>
-      </c>
-      <c r="D66" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="1">
-        <v>159</v>
-      </c>
-      <c r="D67" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="B68" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="1">
-        <v>147</v>
       </c>
       <c r="D68" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1">
+        <v>147</v>
+      </c>
+      <c r="D69" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1">
+        <v>152</v>
+      </c>
+      <c r="D70" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1">
+        <v>159</v>
+      </c>
+      <c r="D71" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1">
+        <v>159</v>
+      </c>
+      <c r="D72" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1">
+        <v>147</v>
+      </c>
+      <c r="D73" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C74" s="1">
         <v>140</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D74" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="10" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C75" s="1">
         <v>157</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B71" s="9" t="s">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C76" s="5">
         <v>155</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D76" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A72" t="s">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B77" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C77" s="3">
         <v>139</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D77" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="B73" s="7" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C78" s="1">
         <v>139</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D78" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="7" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C79" s="1">
         <v>141</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D79" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="B75" s="7" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C80" s="1">
         <v>134</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D80" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="7" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C81" s="1">
         <v>139</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D81" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="B77" s="7" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C82" s="1">
         <v>139</v>
-      </c>
-      <c r="D77" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="B78" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="1">
-        <v>138</v>
-      </c>
-      <c r="D78" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="B79" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="1">
-        <v>139</v>
-      </c>
-      <c r="D79" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="B80" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="1">
-        <v>140</v>
-      </c>
-      <c r="D80" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="B81" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="1">
-        <v>148</v>
-      </c>
-      <c r="D81" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="B82" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="1">
-        <v>142</v>
       </c>
       <c r="D82" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1">
+        <v>139</v>
+      </c>
+      <c r="D84" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1">
+        <v>140</v>
+      </c>
+      <c r="D85" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1">
+        <v>148</v>
+      </c>
+      <c r="D86" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1">
+        <v>142</v>
+      </c>
+      <c r="D87" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1">
+        <v>139</v>
+      </c>
+      <c r="D88" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C89" s="1">
         <v>144</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D89" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="B85" s="7" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C90" s="1">
         <v>142</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D90" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="B86" s="7" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="1">
+        <v>139</v>
+      </c>
+      <c r="D91" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="1">
+        <v>149</v>
+      </c>
+      <c r="D92" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="1">
-        <v>139</v>
-      </c>
-      <c r="D86" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="B87" s="7" t="s">
+      <c r="C93" s="1">
+        <v>150</v>
+      </c>
+      <c r="D93" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="1">
-        <v>149</v>
-      </c>
-      <c r="D87" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="B88" s="7" t="s">
+      <c r="C94" s="1">
+        <v>140</v>
+      </c>
+      <c r="D94" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="1">
-        <v>150</v>
-      </c>
-      <c r="D88" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="B89" s="7" t="s">
+      <c r="C95" s="1">
+        <v>146</v>
+      </c>
+      <c r="D95" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="1">
-        <v>140</v>
-      </c>
-      <c r="D89" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="B90" s="7" t="s">
+      <c r="C96" s="1">
+        <v>148</v>
+      </c>
+      <c r="D96" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="1">
-        <v>146</v>
-      </c>
-      <c r="D90" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="B91" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="1">
-        <v>148</v>
-      </c>
-      <c r="D91" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="B92" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="C97" s="1">
         <v>151</v>
-      </c>
-      <c r="D92" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="B93" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="1">
-        <v>148</v>
-      </c>
-      <c r="D93" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B94" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="5">
-        <v>150</v>
-      </c>
-      <c r="D94" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="3">
-        <v>135</v>
-      </c>
-      <c r="D95" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="B96" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" s="1">
-        <v>135</v>
-      </c>
-      <c r="D96" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="B97" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" s="1">
-        <v>138</v>
       </c>
       <c r="D97" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <v>148</v>
+      </c>
+      <c r="D98" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="15">
+        <v>150</v>
+      </c>
+      <c r="D99" s="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="3">
+        <v>135</v>
+      </c>
+      <c r="D100" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="1">
+        <v>135</v>
+      </c>
+      <c r="D101" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="1">
+        <v>138</v>
+      </c>
+      <c r="D102" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="1">
+        <v>152</v>
+      </c>
+      <c r="D103" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="1">
+        <v>138</v>
+      </c>
+      <c r="D104" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C105" s="1">
+        <v>140</v>
+      </c>
+      <c r="D105" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="1">
+        <v>150</v>
+      </c>
+      <c r="D106" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="1">
+        <v>140</v>
+      </c>
+      <c r="D107" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="1">
+        <v>141</v>
+      </c>
+      <c r="D108" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="1">
+        <v>163</v>
+      </c>
+      <c r="D109" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="1">
+        <v>159</v>
+      </c>
+      <c r="D110" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="1">
+        <v>153</v>
+      </c>
+      <c r="D111" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="5">
+        <v>155</v>
+      </c>
+      <c r="D112" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="3">
+        <v>145</v>
+      </c>
+      <c r="D113" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="3">
+        <v>156</v>
+      </c>
+      <c r="D114" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1">
         <v>152</v>
       </c>
-      <c r="D98" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="B99" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="1">
-        <v>138</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="D115" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1">
+        <v>142</v>
+      </c>
+      <c r="D116" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="B100" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="1">
-        <v>140</v>
-      </c>
-      <c r="D100" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="B101" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="1">
-        <v>150</v>
-      </c>
-      <c r="D101" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="B102" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="1">
-        <v>140</v>
-      </c>
-      <c r="D102" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="B103" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="1">
-        <v>141</v>
-      </c>
-      <c r="D103" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="B104" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="1">
-        <v>163</v>
-      </c>
-      <c r="D104" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="B105" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="1">
-        <v>159</v>
-      </c>
-      <c r="D105" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="B106" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="1">
-        <v>153</v>
-      </c>
-      <c r="D106" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B107" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="5">
-        <v>155</v>
-      </c>
-      <c r="D107" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" customHeight="1" ht="15.75">
-      <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="3">
-        <v>145</v>
-      </c>
-      <c r="D108" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" customHeight="1" ht="15.75">
-      <c r="B109" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="3">
-        <v>156</v>
-      </c>
-      <c r="D109" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="B110" s="2" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="1">
-        <v>152</v>
-      </c>
-      <c r="D110" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="B111" s="2" t="s">
+      <c r="C117" s="15">
+        <v>123</v>
+      </c>
+      <c r="D117" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="C111" s="1">
-        <v>142</v>
-      </c>
-      <c r="D111" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="B112" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="15">
-        <v>123</v>
-      </c>
-      <c r="D112" s="15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="B113" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" s="17">
-        <v>160</v>
-      </c>
-      <c r="D113" s="17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="B114" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="17">
-        <v>138</v>
-      </c>
-      <c r="D114" s="17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="B115" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C115" s="17">
-        <v>138</v>
-      </c>
-      <c r="D115" s="17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="B116" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="17">
-        <v>160</v>
-      </c>
-      <c r="D116" s="17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="B117" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" s="17">
-        <v>141</v>
-      </c>
-      <c r="D117" s="17">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="B118" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="C118" s="17">
         <v>160</v>
       </c>
       <c r="D118" s="17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C119" s="17">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D119" s="17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C120" s="17">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D120" s="17">
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="17">
+        <v>160</v>
+      </c>
+      <c r="D121" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="17">
+        <v>141</v>
+      </c>
+      <c r="D122" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="17">
+        <v>160</v>
+      </c>
+      <c r="D123" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="17">
+        <v>160</v>
+      </c>
+      <c r="D124" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="17">
+        <v>143</v>
+      </c>
+      <c r="D125" s="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="17">
+        <v>145</v>
+      </c>
+      <c r="D126" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="17">
+        <v>133</v>
+      </c>
+      <c r="D127" s="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="17">
-        <v>145</v>
-      </c>
-      <c r="D121" s="17">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="B122" s="16" t="s">
+      <c r="C128" s="15">
+        <v>141</v>
+      </c>
+      <c r="D128" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="17">
-        <v>133</v>
-      </c>
-      <c r="D122" s="17">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="B123" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C123" s="17">
-        <v>141</v>
-      </c>
-      <c r="D123" s="17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="B124" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C124" s="22">
+      <c r="C129" s="23">
         <v>180</v>
       </c>
-      <c r="D124" s="22">
+      <c r="D129" s="23">
         <v>90</v>
       </c>
     </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="24"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80492CD-361D-4DEC-946C-13FD63AF83EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8D603-82D0-43C4-9475-92B6C48551C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>GALAXYNote10</t>
   </si>
   <si>
-    <t>GALAXYNote10+</t>
-  </si>
-  <si>
     <t>GALAXYGRANDPRIME</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>IPOD5</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE10+</t>
   </si>
 </sst>
 </file>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="19">
         <v>132</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="19">
         <v>147</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="15">
         <v>117</v>
@@ -1122,14 +1122,14 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1">
         <v>157</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1">
         <v>134</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="1">
         <v>147</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1">
         <v>152</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1">
         <v>159</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1">
         <v>159</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1">
         <v>147</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1">
         <v>140</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1">
         <v>157</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="5">
         <v>155</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="C77" s="3">
         <v>139</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1">
         <v>139</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1">
         <v>141</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1">
         <v>134</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1">
         <v>139</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="1">
         <v>139</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1">
         <v>138</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1">
         <v>139</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1">
         <v>140</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="1">
         <v>148</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="1">
         <v>142</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1">
         <v>139</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1">
         <v>144</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="1">
         <v>142</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" s="1">
         <v>139</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1">
         <v>149</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1">
         <v>150</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1">
         <v>140</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>146</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1">
         <v>148</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1">
         <v>151</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1">
         <v>148</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="15">
         <v>150</v>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="C100" s="3">
         <v>135</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="1">
         <v>135</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="1">
         <v>138</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="1">
         <v>152</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="1">
         <v>138</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="1">
         <v>140</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="1">
         <v>150</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="1">
         <v>140</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="1">
         <v>141</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="1">
         <v>163</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="1">
         <v>159</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="1">
         <v>153</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="5">
         <v>155</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C113" s="3">
         <v>145</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" s="3">
         <v>156</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="1">
         <v>152</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="1">
         <v>142</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="15">
         <v>123</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" s="17">
         <v>160</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" s="17">
         <v>138</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="17">
         <v>138</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="17">
         <v>160</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122" s="17">
         <v>141</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123" s="17">
         <v>160</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124" s="17">
         <v>160</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="17">
         <v>143</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="17">
         <v>145</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="17">
         <v>133</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="15">
         <v>141</v>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="23">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D129" s="23">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
@@ -2331,5 +2331,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72050427-BFAA-4605-9A71-D44EF026FCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F2871-3AB4-456D-8F66-0B663C7D62FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2850" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26100" yWindow="-705" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -211,12 +211,6 @@
     <t>GALAXYNote8</t>
   </si>
   <si>
-    <t>GALAXYNote9</t>
-  </si>
-  <si>
-    <t>GALAXYNote10</t>
-  </si>
-  <si>
     <t>GALAXYGRANDPRIME</t>
   </si>
   <si>
@@ -310,27 +304,6 @@
     <t>Honor</t>
   </si>
   <si>
-    <t>Honor6</t>
-  </si>
-  <si>
-    <t>Honor7</t>
-  </si>
-  <si>
-    <t>Honor8</t>
-  </si>
-  <si>
-    <t>Honor8X</t>
-  </si>
-  <si>
-    <t>Honor9</t>
-  </si>
-  <si>
-    <t>Honor10</t>
-  </si>
-  <si>
-    <t>Honor10LITE</t>
-  </si>
-  <si>
     <t>Y52019</t>
   </si>
   <si>
@@ -346,57 +319,6 @@
     <t>Y62019</t>
   </si>
   <si>
-    <t>View20</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>Z5</t>
-  </si>
-  <si>
-    <t>Z5MINI</t>
-  </si>
-  <si>
-    <t>Z5PREMIUM</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>XA</t>
-  </si>
-  <si>
-    <t>XAULTRA</t>
-  </si>
-  <si>
-    <t>XA1</t>
-  </si>
-  <si>
-    <t>XA1ULTRA</t>
-  </si>
-  <si>
-    <t>XA2</t>
-  </si>
-  <si>
-    <t>XZ</t>
-  </si>
-  <si>
-    <t>XZ1</t>
-  </si>
-  <si>
-    <t>XZ2</t>
-  </si>
-  <si>
-    <t>XZ3</t>
-  </si>
-  <si>
     <t>MUG</t>
   </si>
   <si>
@@ -424,18 +346,9 @@
     <t>GALAXYJ4+2018</t>
   </si>
   <si>
-    <t>XCOMPACT</t>
-  </si>
-  <si>
     <t>MATE8</t>
   </si>
   <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>XA2ULTRA</t>
-  </si>
-  <si>
     <t>REDMINOTE5</t>
   </si>
   <si>
@@ -502,9 +415,6 @@
     <t>HONOR5X</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>GALAXYNOTE10PRO</t>
   </si>
   <si>
@@ -551,6 +461,96 @@
   </si>
   <si>
     <t>ONEPLUS</t>
+  </si>
+  <si>
+    <t>HONOR6</t>
+  </si>
+  <si>
+    <t>HONOR7</t>
+  </si>
+  <si>
+    <t>HONOR8</t>
+  </si>
+  <si>
+    <t>HONOR8X</t>
+  </si>
+  <si>
+    <t>HONOR9</t>
+  </si>
+  <si>
+    <t>HONOR10</t>
+  </si>
+  <si>
+    <t>HONOR10LITE</t>
+  </si>
+  <si>
+    <t>HONORVIEW20</t>
+  </si>
+  <si>
+    <t>XPERIAL1</t>
+  </si>
+  <si>
+    <t>XPERIAL2</t>
+  </si>
+  <si>
+    <t>XPERIAL3</t>
+  </si>
+  <si>
+    <t>XPERIAE4</t>
+  </si>
+  <si>
+    <t>XPERIAE5</t>
+  </si>
+  <si>
+    <t>XPERIAX</t>
+  </si>
+  <si>
+    <t>XPERIAXCOMPACT</t>
+  </si>
+  <si>
+    <t>XPERIAXA</t>
+  </si>
+  <si>
+    <t>XPERIAXAULTRA</t>
+  </si>
+  <si>
+    <t>XPERIAXA1</t>
+  </si>
+  <si>
+    <t>XPERIAXA1ULTRA</t>
+  </si>
+  <si>
+    <t>XPERIAXA2</t>
+  </si>
+  <si>
+    <t>XPERIAXA2ULTRA</t>
+  </si>
+  <si>
+    <t>XPERIAXZ</t>
+  </si>
+  <si>
+    <t>XPERIAXZ1</t>
+  </si>
+  <si>
+    <t>XPERIAXZ2</t>
+  </si>
+  <si>
+    <t>XPERIAXZ3</t>
+  </si>
+  <si>
+    <t>XPERIAZ5</t>
+  </si>
+  <si>
+    <t>XPERIAZ5MINI</t>
+  </si>
+  <si>
+    <t>XPERIAZ5PREMIUM</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE9</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE10</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2">
         <v>210</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5">
         <v>136</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5">
         <v>132</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5">
         <v>147</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C22" s="5">
         <v>107</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5">
         <v>117</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C43" s="7">
         <v>152</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="7">
         <v>147</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="7">
         <v>152</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="7">
         <v>159</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="7">
         <v>159</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="7">
         <v>147</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="7">
         <v>140</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="7">
         <v>157</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C61" s="7">
         <v>162</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="7">
         <v>155</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C63" s="7">
         <v>143</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C64" s="7">
         <v>143</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C66" s="7">
         <v>129</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C69" s="7">
         <v>143</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C70" s="7">
         <v>151</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C71" s="7">
         <v>163</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C73" s="7">
         <v>129</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C79" s="7">
         <v>144</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C84" s="7">
         <v>153</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="C85" s="7">
         <v>147</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C86" s="7">
         <v>157</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C87" s="7">
         <v>169</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C88" s="7">
         <v>134</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C89" s="9">
         <v>139</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" s="9">
         <v>139</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C91" s="9">
         <v>141</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" s="9">
         <v>134</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" s="9">
         <v>139</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" s="9">
         <v>139</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C95" s="9">
         <v>138</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C96" s="9">
         <v>139</v>
@@ -2116,9 +2116,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C97" s="9">
         <v>140</v>
@@ -2127,9 +2127,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C98" s="9">
         <v>148</v>
@@ -2138,9 +2138,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C99" s="9">
         <v>142</v>
@@ -2149,9 +2149,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C100" s="9">
         <v>139</v>
@@ -2159,19 +2159,10 @@
       <c r="D100" s="9">
         <v>63</v>
       </c>
-      <c r="J100" t="s">
-        <v>107</v>
-      </c>
-      <c r="K100">
-        <v>164</v>
-      </c>
-      <c r="L100">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C101" s="9">
         <v>144</v>
@@ -2180,9 +2171,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C102" s="9">
         <v>142</v>
@@ -2191,9 +2182,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C103" s="9">
         <v>139</v>
@@ -2202,9 +2193,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C104" s="9">
         <v>149</v>
@@ -2213,9 +2204,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C105" s="9">
         <v>159</v>
@@ -2224,9 +2215,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C106" s="9">
         <v>150</v>
@@ -2235,9 +2226,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C107" s="9">
         <v>140</v>
@@ -2246,9 +2237,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C108" s="9">
         <v>146</v>
@@ -2257,9 +2248,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C109" s="9">
         <v>148</v>
@@ -2268,9 +2259,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C110" s="9">
         <v>151</v>
@@ -2279,9 +2270,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C111" s="9">
         <v>148</v>
@@ -2290,9 +2281,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C112" s="9">
         <v>150</v>
@@ -2301,9 +2292,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C113" s="9">
         <v>142</v>
@@ -2312,232 +2303,241 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="9">
+        <v>142</v>
+      </c>
+      <c r="D114" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="9">
+        <v>144</v>
+      </c>
+      <c r="D115" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="9">
+        <v>147</v>
+      </c>
+      <c r="D116" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" s="9">
+        <v>140</v>
+      </c>
+      <c r="D117" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C118" s="9">
+        <v>141</v>
+      </c>
+      <c r="D118" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C119" s="9">
+        <v>164</v>
+      </c>
+      <c r="D119" s="9">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
+        <v>98</v>
+      </c>
+      <c r="G119">
+        <v>164</v>
+      </c>
+      <c r="H119">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="9">
+        <v>163</v>
+      </c>
+      <c r="D120" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="9">
         <v>159</v>
       </c>
-      <c r="C114" s="11">
+      <c r="D121" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="11">
         <v>153</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D122" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="11" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="11">
+        <v>151</v>
+      </c>
+      <c r="D123" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="11">
+        <v>135</v>
+      </c>
+      <c r="D124" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="11">
+        <v>152</v>
+      </c>
+      <c r="D125" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="11">
         <v>150</v>
       </c>
-      <c r="C115" s="11">
-        <v>151</v>
-      </c>
-      <c r="D115" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C116" s="11">
+      <c r="D126" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="11">
         <v>135</v>
       </c>
-      <c r="D116" s="11">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="11">
-        <v>152</v>
-      </c>
-      <c r="D117" s="11">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="11">
-        <v>150</v>
-      </c>
-      <c r="D118" s="11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C119" s="11">
-        <v>135</v>
-      </c>
-      <c r="D119" s="11">
+      <c r="D127" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C120" s="11">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="11">
         <v>138</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D128" s="11">
         <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C121" s="11">
-        <v>152</v>
-      </c>
-      <c r="D121" s="11">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C122" s="11">
-        <v>138</v>
-      </c>
-      <c r="D122" s="11">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" s="11">
-        <v>155</v>
-      </c>
-      <c r="D123" s="11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C124" s="11">
-        <v>140</v>
-      </c>
-      <c r="D124" s="11">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="11">
-        <v>150</v>
-      </c>
-      <c r="D125" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C126" s="11">
-        <v>142</v>
-      </c>
-      <c r="D126" s="11">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C127" s="11">
-        <v>144</v>
-      </c>
-      <c r="D127" s="11">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C128" s="11">
-        <v>147</v>
-      </c>
-      <c r="D128" s="11">
-        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C129" s="11">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D129" s="11">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C130" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D130" s="11">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="10" t="s">
-        <v>107</v>
+      <c r="B131" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C131" s="11">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D131" s="11">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C132" s="11">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D132" s="11">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C133" s="11">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D133" s="11">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C134" s="11">
         <v>159</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C135" s="11">
         <v>155</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C136" s="13">
         <v>145</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C137" s="13">
         <v>156</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C138" s="13">
         <v>152</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C139" s="13">
         <v>137</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="13" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C140" s="13">
         <v>145</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="C141" s="13">
         <v>138</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C142" s="13">
         <v>137</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C143" s="13">
         <v>138</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C144" s="13">
         <v>160</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C145" s="13">
         <v>141</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C146" s="13">
         <v>160</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C147" s="13">
         <v>160</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C148" s="13">
         <v>168</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C149" s="13">
         <v>143</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C150" s="13">
         <v>145</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C151" s="13">
         <v>133</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C152" s="13">
         <v>141</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C153" s="13">
         <v>142</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C154" s="13">
         <v>123</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C155" s="13">
         <v>160</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C156" s="14">
         <v>159</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="14" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C157" s="14">
         <v>159</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="14" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C158" s="14">
         <v>150</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C159" s="14">
         <v>150</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C160" s="15">
         <v>152</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="15" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C161" s="15">
         <v>147</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C162" s="16">
         <v>160</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C163" s="17">
         <v>155</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="17" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C164" s="17">
         <v>157</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" s="17" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C165" s="17">
         <v>155</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" s="17" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C166" s="17">
         <v>159</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F2871-3AB4-456D-8F66-0B663C7D62FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA69F7-6EFB-472B-BF99-B53EC653DB3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="-705" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2850" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>Modèle</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>GALAXYNOTE10</t>
+  </si>
+  <si>
+    <t>GALAXYJ6+2018</t>
+  </si>
+  <si>
+    <t>POP</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,55 +1080,55 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>145</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>139</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>151</v>
-      </c>
-      <c r="D5" s="5">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D6" s="5">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>136</v>
@@ -1133,51 +1139,51 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D8" s="5">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D10" s="5">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D11" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>123</v>
@@ -1188,29 +1194,29 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C15" s="5">
         <v>132</v>
@@ -1221,18 +1227,18 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D16" s="5">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5">
         <v>147</v>
@@ -1243,18 +1249,18 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D18" s="5">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5">
         <v>130</v>
@@ -1265,18 +1271,18 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D20" s="5">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5">
         <v>151</v>
@@ -1286,30 +1292,30 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>151</v>
+      </c>
+      <c r="D22" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="5">
         <v>107</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C23" s="5">
-        <v>117</v>
-      </c>
-      <c r="D23" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C24" s="5">
         <v>117</v>
@@ -1319,286 +1325,286 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>117</v>
+      </c>
+      <c r="D25" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>134</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>135</v>
-      </c>
-      <c r="D26" s="7">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D28" s="7">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="7">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D29" s="7">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D31" s="7">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D32" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D34" s="7">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D35" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="7">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D36" s="7">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="7">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D37" s="7">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D38" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="7">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D40" s="7">
-        <v>610</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="7">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D41" s="7">
-        <v>66</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7">
+        <v>139</v>
+      </c>
+      <c r="D42" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C43" s="7">
         <v>138</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C44" s="7">
         <v>152</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="7">
         <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="7">
-        <v>138</v>
-      </c>
-      <c r="D44" s="7">
-        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="7">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D45" s="7">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D46" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="7">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="7">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="7">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="7">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>150</v>
@@ -1609,73 +1615,73 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="7">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D51" s="7">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="7">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D52" s="7">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="7">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D53" s="7">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C54" s="7">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D54" s="7">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="7">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D55" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="7">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="7">
         <v>159</v>
@@ -1686,73 +1692,73 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="7">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D58" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="7">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D59" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="7">
+        <v>140</v>
+      </c>
+      <c r="D60" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C61" s="7">
         <v>157</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C62" s="7">
         <v>162</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C63" s="7">
         <v>155</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="7">
         <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="7">
-        <v>143</v>
-      </c>
-      <c r="D63" s="7">
-        <v>73</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="7">
         <v>143</v>
@@ -1762,19 +1768,19 @@
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>50</v>
+      <c r="B65" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C65" s="7">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D65" s="7">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C66" s="7">
         <v>129</v>
@@ -1785,73 +1791,73 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C67" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D67" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="7">
+        <v>128</v>
+      </c>
+      <c r="D68" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C69" s="7">
         <v>136</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="7">
-        <v>143</v>
-      </c>
-      <c r="D69" s="7">
-        <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="7">
+        <v>143</v>
+      </c>
+      <c r="D70" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C71" s="7">
         <v>151</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="7">
         <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="7">
-        <v>163</v>
-      </c>
-      <c r="D71" s="7">
-        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C72" s="7">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D72" s="7">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="C73" s="7">
         <v>129</v>
@@ -1862,54 +1868,54 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C74" s="7">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D74" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="7">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D75" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D76" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="7">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D77" s="7">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="7">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D78" s="7">
         <v>70</v>
@@ -1917,10 +1923,10 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C79" s="7">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D79" s="7">
         <v>70</v>
@@ -1928,255 +1934,255 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C80" s="7">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D80" s="7">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C81" s="7">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D81" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" s="7">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="7">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" s="7">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D83" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="7">
+        <v>150</v>
+      </c>
+      <c r="D84" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="7">
+        <v>154</v>
+      </c>
+      <c r="D85" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C86" s="7">
         <v>153</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D86" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C87" s="7">
         <v>147</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D87" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C88" s="7">
         <v>157</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D88" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C89" s="7">
         <v>169</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D89" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C90" s="7">
         <v>134</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D90" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C91" s="9">
         <v>139</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D91" s="9">
         <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="9">
-        <v>139</v>
-      </c>
-      <c r="D90" s="9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="9">
-        <v>141</v>
-      </c>
-      <c r="D91" s="9">
-        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" s="9">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D92" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D93" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" s="9">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D94" s="9">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D95" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" s="9">
         <v>139</v>
       </c>
       <c r="D96" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C97" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D97" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C98" s="9">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D98" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C99" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D99" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C100" s="9">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D100" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C101" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D101" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="9">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D102" s="9">
         <v>63</v>
@@ -2184,21 +2190,21 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C103" s="9">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D103" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C104" s="9">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D104" s="9">
         <v>63</v>
@@ -2206,694 +2212,694 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C105" s="9">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D105" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C106" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D106" s="9">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C107" s="9">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D107" s="9">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C108" s="9">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D108" s="9">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="9">
+        <v>140</v>
+      </c>
+      <c r="D109" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="9">
+        <v>146</v>
+      </c>
+      <c r="D110" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C109" s="9">
-        <v>148</v>
-      </c>
-      <c r="D109" s="9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="9">
-        <v>151</v>
-      </c>
-      <c r="D110" s="9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="C111" s="9">
         <v>148</v>
       </c>
       <c r="D111" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="9">
+        <v>151</v>
+      </c>
+      <c r="D112" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="9">
+        <v>148</v>
+      </c>
+      <c r="D113" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C114" s="9">
         <v>150</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D114" s="9">
         <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="9">
-        <v>142</v>
-      </c>
-      <c r="D113" s="9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114" s="9">
-        <v>142</v>
-      </c>
-      <c r="D114" s="9">
-        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C115" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D115" s="9">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C116" s="9">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D116" s="9">
         <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
-        <v>94</v>
+      <c r="B117" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C117" s="9">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D117" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
-        <v>95</v>
+      <c r="B118" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C118" s="9">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D118" s="9">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C119" s="9">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D119" s="9">
-        <v>81</v>
-      </c>
-      <c r="F119" t="s">
-        <v>98</v>
-      </c>
-      <c r="G119">
-        <v>164</v>
-      </c>
-      <c r="H119">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C120" s="9">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D120" s="9">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="9">
+        <v>164</v>
+      </c>
+      <c r="D121" s="9">
+        <v>81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>98</v>
+      </c>
+      <c r="G121">
+        <v>164</v>
+      </c>
+      <c r="H121">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="9">
+        <v>163</v>
+      </c>
+      <c r="D122" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C123" s="9">
         <v>159</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D123" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B124" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C124" s="11">
         <v>153</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D124" s="11">
         <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="11">
-        <v>151</v>
-      </c>
-      <c r="D123" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="11">
-        <v>135</v>
-      </c>
-      <c r="D124" s="11">
-        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="11">
+        <v>151</v>
+      </c>
+      <c r="D125" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" s="11">
+        <v>135</v>
+      </c>
+      <c r="D126" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C127" s="11">
         <v>152</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D127" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C128" s="11">
         <v>150</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D128" s="11">
         <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C127" s="11">
-        <v>135</v>
-      </c>
-      <c r="D127" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C128" s="11">
-        <v>138</v>
-      </c>
-      <c r="D128" s="11">
-        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C129" s="11">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D129" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C130" s="11">
         <v>138</v>
       </c>
       <c r="D130" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
-        <v>129</v>
+      <c r="B131" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="C131" s="11">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D131" s="11">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="11">
+        <v>138</v>
+      </c>
+      <c r="D132" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="11">
+        <v>139</v>
+      </c>
+      <c r="D133" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C134" s="11">
         <v>140</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D134" s="11">
         <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="11">
-        <v>150</v>
-      </c>
-      <c r="D133" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C134" s="11">
-        <v>159</v>
-      </c>
-      <c r="D134" s="11">
-        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="11">
+        <v>150</v>
+      </c>
+      <c r="D135" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="11">
+        <v>159</v>
+      </c>
+      <c r="D136" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C137" s="11">
         <v>155</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D137" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B138" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C138" s="13">
         <v>145</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D138" s="13">
         <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" s="13">
-        <v>156</v>
-      </c>
-      <c r="D137" s="13">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="13">
-        <v>152</v>
-      </c>
-      <c r="D138" s="13">
-        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C139" s="13">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D139" s="13">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
-        <v>159</v>
+      <c r="B140" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C140" s="13">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D140" s="13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C141" s="13">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" s="13">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="12" t="s">
-        <v>161</v>
+      <c r="B142" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C142" s="13">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D142" s="13">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C143" s="13">
         <v>138</v>
       </c>
       <c r="D143" s="13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C144" s="13">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D144" s="13">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C145" s="13">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D145" s="13">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C146" s="13">
         <v>160</v>
       </c>
       <c r="D146" s="13">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C147" s="13">
+        <v>141</v>
+      </c>
+      <c r="D147" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="13">
         <v>160</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D148" s="13">
         <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C148" s="13">
-        <v>168</v>
-      </c>
-      <c r="D148" s="13">
-        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" s="13">
+        <v>160</v>
+      </c>
+      <c r="D149" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="13">
         <v>168</v>
       </c>
-      <c r="C149" s="13">
-        <v>143</v>
-      </c>
-      <c r="D149" s="13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C150" s="13">
-        <v>145</v>
-      </c>
       <c r="D150" s="13">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C151" s="13">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D151" s="13">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C152" s="13">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D152" s="13">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C153" s="13">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D153" s="13">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C154" s="13">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D154" s="13">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="13">
+        <v>142</v>
+      </c>
+      <c r="D155" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" s="13">
+        <v>123</v>
+      </c>
+      <c r="D156" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C157" s="13">
         <v>160</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D157" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B158" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C158" s="14">
         <v>159</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D158" s="14">
         <v>76</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C157" s="14">
-        <v>159</v>
-      </c>
-      <c r="D157" s="14">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C158" s="14">
-        <v>150</v>
-      </c>
-      <c r="D158" s="14">
-        <v>74</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C159" s="14">
+        <v>159</v>
+      </c>
+      <c r="D159" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="14">
+        <v>150</v>
+      </c>
+      <c r="D160" s="14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C161" s="14">
         <v>150</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D161" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="15" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B162" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C160" s="15">
+      <c r="C162" s="15">
         <v>152</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D162" s="15">
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="15" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="15">
+      <c r="C163" s="15">
         <v>147</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D163" s="15">
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B164" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C162" s="16">
+      <c r="C164" s="16">
         <v>160</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D164" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="17" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B165" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C163" s="17">
-        <v>155</v>
-      </c>
-      <c r="D163" s="17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C164" s="17">
-        <v>157</v>
-      </c>
-      <c r="D164" s="17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="C165" s="17">
         <v>155</v>
@@ -2904,12 +2910,34 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" s="17">
+        <v>157</v>
+      </c>
+      <c r="D166" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167" s="17">
+        <v>155</v>
+      </c>
+      <c r="D167" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C168" s="17">
         <v>159</v>
       </c>
-      <c r="D166" s="17">
+      <c r="D168" s="17">
         <v>77</v>
       </c>
     </row>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA69F7-6EFB-472B-BF99-B53EC653DB3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C7931-3CC5-40D9-8050-8125FFE7AC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2850" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>Modèle</t>
   </si>
@@ -208,9 +208,6 @@
     <t>GALAXYJ82018</t>
   </si>
   <si>
-    <t>GALAXYNote8</t>
-  </si>
-  <si>
     <t>GALAXYGRANDPRIME</t>
   </si>
   <si>
@@ -557,13 +554,19 @@
   </si>
   <si>
     <t>POP</t>
+  </si>
+  <si>
+    <t>HONOR20</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -572,6 +575,13 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -714,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -733,6 +743,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,16 +1056,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
@@ -1070,7 +1084,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2">
         <v>210</v>
@@ -1081,7 +1095,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1139,7 +1153,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5">
         <v>136</v>
@@ -1216,7 +1230,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="5">
         <v>132</v>
@@ -1238,7 +1252,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="5">
         <v>147</v>
@@ -1304,7 +1318,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5">
         <v>107</v>
@@ -1315,7 +1329,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5">
         <v>117</v>
@@ -1538,7 +1552,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="7">
         <v>152</v>
@@ -1659,7 +1673,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7">
         <v>147</v>
@@ -1670,7 +1684,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7">
         <v>152</v>
@@ -1681,7 +1695,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="7">
         <v>159</v>
@@ -1692,7 +1706,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="7">
         <v>159</v>
@@ -1703,7 +1717,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="7">
         <v>147</v>
@@ -1714,7 +1728,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="7">
         <v>140</v>
@@ -1725,7 +1739,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="7">
         <v>157</v>
@@ -1736,7 +1750,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="7">
         <v>162</v>
@@ -1747,7 +1761,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="7">
         <v>155</v>
@@ -1758,7 +1772,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="7">
         <v>143</v>
@@ -1769,7 +1783,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="7">
         <v>143</v>
@@ -1791,7 +1805,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="7">
         <v>129</v>
@@ -1824,7 +1838,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="7">
         <v>143</v>
@@ -1835,7 +1849,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="7">
         <v>151</v>
@@ -1846,7 +1860,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="7">
         <v>163</v>
@@ -1868,7 +1882,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="7">
         <v>129</v>
@@ -1923,7 +1937,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C79" s="7">
         <v>152</v>
@@ -1945,7 +1959,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="7">
         <v>144</v>
@@ -1988,8 +2002,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
-        <v>62</v>
+      <c r="B85" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="C85" s="7">
         <v>154</v>
@@ -2000,7 +2014,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" s="7">
         <v>153</v>
@@ -2011,7 +2025,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="7">
         <v>147</v>
@@ -2022,7 +2036,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" s="7">
         <v>157</v>
@@ -2033,7 +2047,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="7">
         <v>169</v>
@@ -2044,7 +2058,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C90" s="7">
         <v>134</v>
@@ -2055,10 +2069,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C91" s="9">
         <v>139</v>
@@ -2069,7 +2083,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C92" s="9">
         <v>139</v>
@@ -2080,7 +2094,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" s="9">
         <v>141</v>
@@ -2091,7 +2105,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="9">
         <v>134</v>
@@ -2102,7 +2116,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="9">
         <v>139</v>
@@ -2113,7 +2127,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="9">
         <v>139</v>
@@ -2124,7 +2138,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="9">
         <v>138</v>
@@ -2135,7 +2149,7 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="9">
         <v>139</v>
@@ -2146,7 +2160,7 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="9">
         <v>140</v>
@@ -2157,7 +2171,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" s="9">
         <v>148</v>
@@ -2168,7 +2182,7 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="9">
         <v>142</v>
@@ -2179,7 +2193,7 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" s="9">
         <v>139</v>
@@ -2190,7 +2204,7 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" s="9">
         <v>144</v>
@@ -2201,7 +2215,7 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C104" s="9">
         <v>142</v>
@@ -2212,7 +2226,7 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="9">
         <v>139</v>
@@ -2223,7 +2237,7 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="9">
         <v>149</v>
@@ -2234,7 +2248,7 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" s="9">
         <v>159</v>
@@ -2245,7 +2259,7 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C108" s="9">
         <v>150</v>
@@ -2256,7 +2270,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C109" s="9">
         <v>140</v>
@@ -2267,7 +2281,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C110" s="9">
         <v>146</v>
@@ -2278,7 +2292,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" s="9">
         <v>148</v>
@@ -2289,7 +2303,7 @@
     </row>
     <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" s="9">
         <v>151</v>
@@ -2300,7 +2314,7 @@
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="9">
         <v>148</v>
@@ -2311,7 +2325,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" s="9">
         <v>150</v>
@@ -2322,7 +2336,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="9">
         <v>142</v>
@@ -2333,7 +2347,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="9">
         <v>142</v>
@@ -2344,7 +2358,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="9">
         <v>144</v>
@@ -2355,7 +2369,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" s="9">
         <v>147</v>
@@ -2366,7 +2380,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119" s="9">
         <v>140</v>
@@ -2377,7 +2391,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120" s="9">
         <v>141</v>
@@ -2388,7 +2402,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" s="9">
         <v>164</v>
@@ -2397,7 +2411,7 @@
         <v>81</v>
       </c>
       <c r="F121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G121">
         <v>164</v>
@@ -2408,7 +2422,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C122" s="9">
         <v>163</v>
@@ -2419,7 +2433,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="9">
         <v>159</v>
@@ -2430,10 +2444,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" s="11">
         <v>153</v>
@@ -2444,7 +2458,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="11">
         <v>151</v>
@@ -2455,7 +2469,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C126" s="11">
         <v>135</v>
@@ -2466,7 +2480,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="11">
         <v>152</v>
@@ -2477,7 +2491,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="11">
         <v>150</v>
@@ -2486,9 +2500,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129" s="11">
         <v>135</v>
@@ -2497,9 +2511,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" s="11">
         <v>138</v>
@@ -2508,9 +2522,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="11">
         <v>152</v>
@@ -2519,9 +2533,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="11">
         <v>138</v>
@@ -2530,9 +2544,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="11">
         <v>139</v>
@@ -2541,9 +2555,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C134" s="11">
         <v>140</v>
@@ -2552,9 +2566,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C135" s="11">
         <v>150</v>
@@ -2562,115 +2576,117 @@
       <c r="D135" s="11">
         <v>63</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="11" t="s">
-        <v>128</v>
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="C136" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D136" s="11">
         <v>77</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="10" t="s">
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" s="11">
+        <v>159</v>
+      </c>
+      <c r="D137" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" s="11">
+        <v>155</v>
+      </c>
+      <c r="D138" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C139" s="13">
+        <v>145</v>
+      </c>
+      <c r="D139" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D137" s="11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C138" s="13">
+      <c r="C140" s="13">
+        <v>156</v>
+      </c>
+      <c r="D140" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="13">
+        <v>152</v>
+      </c>
+      <c r="D141" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="13">
+        <v>137</v>
+      </c>
+      <c r="D142" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="13">
         <v>145</v>
       </c>
-      <c r="D138" s="13">
+      <c r="D143" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" s="13">
+        <v>138</v>
+      </c>
+      <c r="D144" s="13">
         <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C139" s="13">
-        <v>156</v>
-      </c>
-      <c r="D139" s="13">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="13">
-        <v>152</v>
-      </c>
-      <c r="D140" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C141" s="13">
-        <v>137</v>
-      </c>
-      <c r="D141" s="13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C142" s="13">
-        <v>145</v>
-      </c>
-      <c r="D142" s="13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C143" s="13">
-        <v>138</v>
-      </c>
-      <c r="D143" s="13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C144" s="13">
-        <v>137</v>
-      </c>
-      <c r="D144" s="13">
-        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C145" s="13">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D145" s="13">
         <v>65</v>
@@ -2678,40 +2694,40 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C146" s="13">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D146" s="13">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C147" s="13">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D147" s="13">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C148" s="13">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D148" s="13">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C149" s="13">
         <v>160</v>
@@ -2721,223 +2737,234 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="13" t="s">
-        <v>167</v>
+      <c r="B150" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C150" s="13">
+        <v>160</v>
+      </c>
+      <c r="D150" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" s="13">
         <v>168</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D151" s="13">
         <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C151" s="13">
-        <v>143</v>
-      </c>
-      <c r="D151" s="13">
-        <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C152" s="13">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D152" s="13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C153" s="13">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D153" s="13">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C154" s="13">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D154" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C155" s="13">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D155" s="13">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C156" s="13">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D156" s="13">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C157" s="13">
+        <v>123</v>
+      </c>
+      <c r="D157" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="13">
         <v>160</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D158" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C158" s="14">
-        <v>159</v>
-      </c>
-      <c r="D158" s="14">
-        <v>76</v>
-      </c>
-    </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="B159" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C159" s="14">
         <v>159</v>
       </c>
       <c r="D159" s="14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C160" s="14">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D160" s="14">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C161" s="14">
         <v>150</v>
       </c>
       <c r="D161" s="14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="14">
+        <v>150</v>
+      </c>
+      <c r="D162" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C162" s="15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="15">
         <v>152</v>
-      </c>
-      <c r="D162" s="15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C163" s="15">
-        <v>147</v>
       </c>
       <c r="D163" s="15">
         <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+      <c r="B164" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="15">
+        <v>147</v>
+      </c>
+      <c r="D164" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" s="16">
+        <v>160</v>
+      </c>
+      <c r="D165" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B164" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C164" s="16">
-        <v>160</v>
-      </c>
-      <c r="D164" s="16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C165" s="17">
+      <c r="B166" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C166" s="17">
         <v>155</v>
       </c>
-      <c r="D165" s="17">
+      <c r="D166" s="17">
         <v>75</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C166" s="17">
-        <v>157</v>
-      </c>
-      <c r="D166" s="17">
-        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C167" s="17">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D167" s="17">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C168" s="17">
+        <v>155</v>
+      </c>
+      <c r="D168" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C169" s="17">
         <v>159</v>
       </c>
-      <c r="D168" s="17">
+      <c r="D169" s="17">
         <v>77</v>
       </c>
     </row>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C7931-3CC5-40D9-8050-8125FFE7AC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E20AB-2BB5-4BDC-A0D9-4BC52372C3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2805" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -553,13 +553,13 @@
     <t>GALAXYJ6+2018</t>
   </si>
   <si>
-    <t>POP</t>
-  </si>
-  <si>
     <t>HONOR20</t>
   </si>
   <si>
     <t>GALAXYNOTE8</t>
+  </si>
+  <si>
+    <t>POPSOCKET</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" s="7">
         <v>154</v>
@@ -2372,10 +2372,10 @@
         <v>122</v>
       </c>
       <c r="C118" s="9">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D118" s="9">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -2580,13 +2580,13 @@
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C136" s="11">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D136" s="11">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G136" s="18"/>
     </row>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E20AB-2BB5-4BDC-A0D9-4BC52372C3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B21F8-0924-466F-8282-DB32D7013FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2805" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1845" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B21F8-0924-466F-8282-DB32D7013FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D217B62-AEA9-4BCB-94BA-86F21DEE1A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1845" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,12 @@
     <t>Largeur</t>
   </si>
   <si>
+    <t>MUG</t>
+  </si>
+  <si>
+    <t>POPSOCKET</t>
+  </si>
+  <si>
     <t>IPHONE</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>IPHONEX</t>
   </si>
   <si>
+    <t>IPHONEXS</t>
+  </si>
+  <si>
     <t>IPHONEXR</t>
   </si>
   <si>
@@ -64,9 +73,15 @@
     <t>IPHONE5C</t>
   </si>
   <si>
+    <t>IPHONE6S</t>
+  </si>
+  <si>
     <t>IPHONE6</t>
   </si>
   <si>
+    <t>IPHONE6S+</t>
+  </si>
+  <si>
     <t>IPHONE6+</t>
   </si>
   <si>
@@ -82,6 +97,12 @@
     <t>IPHONE7+</t>
   </si>
   <si>
+    <t>IPOD4</t>
+  </si>
+  <si>
+    <t>IPODTOUCH5</t>
+  </si>
+  <si>
     <t>IPODTOUCH6</t>
   </si>
   <si>
@@ -142,6 +163,9 @@
     <t>GALAXYA52017</t>
   </si>
   <si>
+    <t>GALAXYA52018</t>
+  </si>
+  <si>
     <t>GALAXYA62018</t>
   </si>
   <si>
@@ -172,18 +196,66 @@
     <t>GALAXYA9</t>
   </si>
   <si>
+    <t>GALAXYA10</t>
+  </si>
+  <si>
+    <t>GALAXYA10E</t>
+  </si>
+  <si>
+    <t>GALAXYA20</t>
+  </si>
+  <si>
+    <t>GALAXYA30</t>
+  </si>
+  <si>
+    <t>GALAXYA20E</t>
+  </si>
+  <si>
+    <t>GALAXYA40</t>
+  </si>
+  <si>
+    <t>GALAXYA50</t>
+  </si>
+  <si>
+    <t>GALAXYA60</t>
+  </si>
+  <si>
+    <t>GALAXYA70</t>
+  </si>
+  <si>
+    <t>GALAXYJ22018</t>
+  </si>
+  <si>
+    <t>GALAXYJ2PRO2018</t>
+  </si>
+  <si>
     <t>GALAXYJ3</t>
   </si>
   <si>
+    <t>GALAXYJ32015</t>
+  </si>
+  <si>
     <t>GALAXYJ32016</t>
   </si>
   <si>
     <t>GALAXYJ32017</t>
   </si>
   <si>
+    <t>GALAXYJ32018</t>
+  </si>
+  <si>
+    <t>GALAXYJ42018</t>
+  </si>
+  <si>
+    <t>GALAXYJ4+2018</t>
+  </si>
+  <si>
     <t>GALAXYJ5</t>
   </si>
   <si>
+    <t>GALAXYJ52015</t>
+  </si>
+  <si>
     <t>GALAXYJ52016</t>
   </si>
   <si>
@@ -196,9 +268,15 @@
     <t>GALAXYJ6+</t>
   </si>
   <si>
+    <t>GALAXYJ6+2018</t>
+  </si>
+  <si>
     <t>GALAXYJ7</t>
   </si>
   <si>
+    <t>GALAXYJ72015</t>
+  </si>
+  <si>
     <t>GALAXYJ72016</t>
   </si>
   <si>
@@ -208,31 +286,25 @@
     <t>GALAXYJ82018</t>
   </si>
   <si>
+    <t>GALAXYNOTE8</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE9</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE10</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE10+</t>
+  </si>
+  <si>
+    <t>GALAXYNOTE10PRO</t>
+  </si>
+  <si>
     <t>GALAXYGRANDPRIME</t>
   </si>
   <si>
-    <t>GALAXYA10</t>
-  </si>
-  <si>
-    <t>GALAXYA10E</t>
-  </si>
-  <si>
-    <t>GALAXYA20</t>
-  </si>
-  <si>
-    <t>GALAXYA30</t>
-  </si>
-  <si>
-    <t>GALAXYA20E</t>
-  </si>
-  <si>
-    <t>GALAXYA40</t>
-  </si>
-  <si>
-    <t>GALAXYA50</t>
-  </si>
-  <si>
-    <t>GALAXYA70</t>
+    <t>HUAWEI</t>
   </si>
   <si>
     <t>P8</t>
@@ -277,6 +349,15 @@
     <t>P30LITE</t>
   </si>
   <si>
+    <t>PSMART</t>
+  </si>
+  <si>
+    <t>PSMART2019</t>
+  </si>
+  <si>
+    <t>MATE8</t>
+  </si>
+  <si>
     <t>MATE9</t>
   </si>
   <si>
@@ -298,52 +379,145 @@
     <t>MATE20LITE</t>
   </si>
   <si>
+    <t>ENJOY6S</t>
+  </si>
+  <si>
+    <t>Y32017</t>
+  </si>
+  <si>
+    <t>Y52017</t>
+  </si>
+  <si>
+    <t>Y52018</t>
+  </si>
+  <si>
+    <t>Y52019</t>
+  </si>
+  <si>
+    <t>Y62018</t>
+  </si>
+  <si>
+    <t>Y62019</t>
+  </si>
+  <si>
+    <t>Y72019</t>
+  </si>
+  <si>
+    <t>Y72018</t>
+  </si>
+  <si>
     <t>Honor</t>
   </si>
   <si>
-    <t>Y52019</t>
-  </si>
-  <si>
-    <t>Y62018</t>
-  </si>
-  <si>
-    <t>Y72019</t>
-  </si>
-  <si>
-    <t>Y72018</t>
-  </si>
-  <si>
-    <t>Y62019</t>
-  </si>
-  <si>
-    <t>MUG</t>
-  </si>
-  <si>
-    <t>PSMART</t>
-  </si>
-  <si>
-    <t>PSMART2019</t>
-  </si>
-  <si>
-    <t>IPHONE6S</t>
-  </si>
-  <si>
-    <t>IPHONE6S+</t>
-  </si>
-  <si>
-    <t>IPODTOUCH5</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE10+</t>
-  </si>
-  <si>
-    <t>IPHONEXS</t>
-  </si>
-  <si>
-    <t>GALAXYJ4+2018</t>
-  </si>
-  <si>
-    <t>MATE8</t>
+    <t>HONOR5X</t>
+  </si>
+  <si>
+    <t>HONOR6X</t>
+  </si>
+  <si>
+    <t>HONOR6</t>
+  </si>
+  <si>
+    <t>HONOR7A</t>
+  </si>
+  <si>
+    <t>HONOR7S</t>
+  </si>
+  <si>
+    <t>HONOR7</t>
+  </si>
+  <si>
+    <t>HONOR8</t>
+  </si>
+  <si>
+    <t>HONOR8X</t>
+  </si>
+  <si>
+    <t>HONOR9</t>
+  </si>
+  <si>
+    <t>HONOR9LITE</t>
+  </si>
+  <si>
+    <t>HONOR10</t>
+  </si>
+  <si>
+    <t>HONOR10LITE</t>
+  </si>
+  <si>
+    <t>HONOR20</t>
+  </si>
+  <si>
+    <t>HONORVIEW10</t>
+  </si>
+  <si>
+    <t>HONORVIEW20</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>XPERIAL1</t>
+  </si>
+  <si>
+    <t>XPERIAL2</t>
+  </si>
+  <si>
+    <t>XPERIAL3</t>
+  </si>
+  <si>
+    <t>XPERIAE4</t>
+  </si>
+  <si>
+    <t>XPERIAE5</t>
+  </si>
+  <si>
+    <t>XPERIAX</t>
+  </si>
+  <si>
+    <t>XPERIAXCOMPACT</t>
+  </si>
+  <si>
+    <t>XPERIAXA</t>
+  </si>
+  <si>
+    <t>XPERIAXAULTRA</t>
+  </si>
+  <si>
+    <t>XPERIAXA1</t>
+  </si>
+  <si>
+    <t>XPERIAXA1ULTRA</t>
+  </si>
+  <si>
+    <t>XPERIAXA2</t>
+  </si>
+  <si>
+    <t>XPERIAXA2ULTRA</t>
+  </si>
+  <si>
+    <t>XPERIAXZ</t>
+  </si>
+  <si>
+    <t>XPERIAXZ1</t>
+  </si>
+  <si>
+    <t>XPERIAXZ2</t>
+  </si>
+  <si>
+    <t>XPERIAXZ3</t>
+  </si>
+  <si>
+    <t>XPERIAZ5</t>
+  </si>
+  <si>
+    <t>XPERIAZ5MINI</t>
+  </si>
+  <si>
+    <t>XPERIAZ5PREMIUM</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
   </si>
   <si>
     <t>REDMINOTE5</t>
@@ -358,233 +532,48 @@
     <t>REDMI6A</t>
   </si>
   <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
     <t>NOKIA82018</t>
   </si>
   <si>
     <t>NOKIA62018</t>
   </si>
   <si>
+    <t>GOOGLE</t>
+  </si>
+  <si>
     <t>PIXEL3XL</t>
   </si>
   <si>
-    <t>HONOR7A</t>
-  </si>
-  <si>
-    <t>HONOR7S</t>
+    <t>ONEPLUS</t>
+  </si>
+  <si>
+    <t>ONEPLUS5</t>
+  </si>
+  <si>
+    <t>ONEPLUS5T</t>
   </si>
   <si>
     <t>ONEPLUS6</t>
   </si>
   <si>
-    <t>IPOD4</t>
-  </si>
-  <si>
-    <t>ENJOY6S</t>
-  </si>
-  <si>
-    <t>HONOR6X</t>
-  </si>
-  <si>
-    <t>ONEPLUS5T</t>
-  </si>
-  <si>
-    <t>Y52018</t>
-  </si>
-  <si>
-    <t>Y32017</t>
-  </si>
-  <si>
-    <t>Y52017</t>
-  </si>
-  <si>
     <t>ONEPLUS7</t>
-  </si>
-  <si>
-    <t>ONEPLUS5</t>
-  </si>
-  <si>
-    <t>HONORVIEW10</t>
-  </si>
-  <si>
-    <t>HONOR9LITE</t>
-  </si>
-  <si>
-    <t>HONOR5X</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE10PRO</t>
-  </si>
-  <si>
-    <t>GALAXYJ32018</t>
-  </si>
-  <si>
-    <t>GALAXYJ42018</t>
-  </si>
-  <si>
-    <t>GALAXYJ22018</t>
-  </si>
-  <si>
-    <t>GALAXYJ2PRO2018</t>
-  </si>
-  <si>
-    <t>GALAXYA60</t>
-  </si>
-  <si>
-    <t>GALAXYA52018</t>
-  </si>
-  <si>
-    <t>GALAXYJ52015</t>
-  </si>
-  <si>
-    <t>GALAXYJ32015</t>
-  </si>
-  <si>
-    <t>GALAXYJ72015</t>
-  </si>
-  <si>
-    <t>HUAWEI</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>XIAOMI</t>
-  </si>
-  <si>
-    <t>NOKIA</t>
-  </si>
-  <si>
-    <t>GOOGLE</t>
-  </si>
-  <si>
-    <t>ONEPLUS</t>
-  </si>
-  <si>
-    <t>HONOR6</t>
-  </si>
-  <si>
-    <t>HONOR7</t>
-  </si>
-  <si>
-    <t>HONOR8</t>
-  </si>
-  <si>
-    <t>HONOR8X</t>
-  </si>
-  <si>
-    <t>HONOR9</t>
-  </si>
-  <si>
-    <t>HONOR10</t>
-  </si>
-  <si>
-    <t>HONOR10LITE</t>
-  </si>
-  <si>
-    <t>HONORVIEW20</t>
-  </si>
-  <si>
-    <t>XPERIAL1</t>
-  </si>
-  <si>
-    <t>XPERIAL2</t>
-  </si>
-  <si>
-    <t>XPERIAL3</t>
-  </si>
-  <si>
-    <t>XPERIAE4</t>
-  </si>
-  <si>
-    <t>XPERIAE5</t>
-  </si>
-  <si>
-    <t>XPERIAX</t>
-  </si>
-  <si>
-    <t>XPERIAXCOMPACT</t>
-  </si>
-  <si>
-    <t>XPERIAXA</t>
-  </si>
-  <si>
-    <t>XPERIAXAULTRA</t>
-  </si>
-  <si>
-    <t>XPERIAXA1</t>
-  </si>
-  <si>
-    <t>XPERIAXA1ULTRA</t>
-  </si>
-  <si>
-    <t>XPERIAXA2</t>
-  </si>
-  <si>
-    <t>XPERIAXA2ULTRA</t>
-  </si>
-  <si>
-    <t>XPERIAXZ</t>
-  </si>
-  <si>
-    <t>XPERIAXZ1</t>
-  </si>
-  <si>
-    <t>XPERIAXZ2</t>
-  </si>
-  <si>
-    <t>XPERIAXZ3</t>
-  </si>
-  <si>
-    <t>XPERIAZ5</t>
-  </si>
-  <si>
-    <t>XPERIAZ5MINI</t>
-  </si>
-  <si>
-    <t>XPERIAZ5PREMIUM</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE9</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE10</t>
-  </si>
-  <si>
-    <t>GALAXYJ6+2018</t>
-  </si>
-  <si>
-    <t>HONOR20</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE8</t>
-  </si>
-  <si>
-    <t>POPSOCKET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,90 +588,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD2DAE4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFD6E3BC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFCCC0D9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE5B8B7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -705,21 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -727,37 +665,31 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFCCCCFF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1058,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170:D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1016,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>210</v>
@@ -1095,7 +1027,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>35</v>
@@ -1106,10 +1038,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>145</v>
@@ -1120,7 +1052,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>139</v>
@@ -1131,7 +1063,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>151</v>
@@ -1142,7 +1074,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>136</v>
@@ -1153,7 +1085,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>136</v>
@@ -1164,7 +1096,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>142</v>
@@ -1175,7 +1107,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>151</v>
@@ -1186,7 +1118,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
         <v>115</v>
@@ -1197,7 +1129,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
         <v>123</v>
@@ -1208,7 +1140,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
         <v>123</v>
@@ -1219,7 +1151,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
         <v>120</v>
@@ -1230,7 +1162,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5">
         <v>132</v>
@@ -1241,7 +1173,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>132</v>
@@ -1252,7 +1184,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5">
         <v>147</v>
@@ -1263,7 +1195,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5">
         <v>147</v>
@@ -1274,7 +1206,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5">
         <v>130</v>
@@ -1285,7 +1217,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5">
         <v>130</v>
@@ -1296,7 +1228,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5">
         <v>151</v>
@@ -1307,7 +1239,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5">
         <v>151</v>
@@ -1318,7 +1250,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5">
         <v>107</v>
@@ -1329,7 +1261,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5">
         <v>117</v>
@@ -1340,7 +1272,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5">
         <v>117</v>
@@ -1351,10 +1283,10 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>134</v>
@@ -1365,7 +1297,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>135</v>
@@ -1376,7 +1308,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
         <v>150</v>
@@ -1387,7 +1319,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7">
         <v>132</v>
@@ -1398,7 +1330,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
         <v>141</v>
@@ -1409,7 +1341,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>140</v>
@@ -1420,7 +1352,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
         <v>151</v>
@@ -1431,7 +1363,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
         <v>140</v>
@@ -1442,7 +1374,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>149</v>
@@ -1453,7 +1385,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
         <v>140</v>
@@ -1464,7 +1396,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C36" s="7">
         <v>130</v>
@@ -1475,7 +1407,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>148</v>
@@ -1486,7 +1418,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>120</v>
@@ -1497,7 +1429,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7">
         <v>130</v>
@@ -1508,7 +1440,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C40" s="7">
         <v>128</v>
@@ -1519,7 +1451,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7">
         <v>131</v>
@@ -1530,7 +1462,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C42" s="7">
         <v>139</v>
@@ -1541,7 +1473,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C43" s="7">
         <v>138</v>
@@ -1552,7 +1484,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>152</v>
@@ -1563,7 +1495,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7">
         <v>138</v>
@@ -1574,7 +1506,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7">
         <v>148</v>
@@ -1585,7 +1517,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C47" s="7">
         <v>141</v>
@@ -1596,7 +1528,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C48" s="7">
         <v>145</v>
@@ -1607,7 +1539,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C49" s="7">
         <v>149</v>
@@ -1618,7 +1550,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C50" s="7">
         <v>150</v>
@@ -1629,7 +1561,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C51" s="7">
         <v>150</v>
@@ -1640,7 +1572,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C52" s="7">
         <v>141</v>
@@ -1651,7 +1583,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C53" s="7">
         <v>151</v>
@@ -1662,7 +1594,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C54" s="7">
         <v>155</v>
@@ -1673,7 +1605,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C55" s="7">
         <v>147</v>
@@ -1684,7 +1616,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C56" s="7">
         <v>152</v>
@@ -1695,7 +1627,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C57" s="7">
         <v>159</v>
@@ -1706,7 +1638,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C58" s="7">
         <v>159</v>
@@ -1717,7 +1649,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C59" s="7">
         <v>147</v>
@@ -1728,7 +1660,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C60" s="7">
         <v>140</v>
@@ -1739,7 +1671,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C61" s="7">
         <v>157</v>
@@ -1750,7 +1682,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C62" s="7">
         <v>162</v>
@@ -1761,7 +1693,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="7">
         <v>155</v>
@@ -1772,7 +1704,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C64" s="7">
         <v>143</v>
@@ -1783,7 +1715,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C65" s="7">
         <v>143</v>
@@ -1794,7 +1726,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C66" s="7">
         <v>129</v>
@@ -1805,7 +1737,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="C67" s="7">
         <v>129</v>
@@ -1816,7 +1748,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C68" s="7">
         <v>128</v>
@@ -1827,7 +1759,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C69" s="7">
         <v>136</v>
@@ -1838,7 +1770,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C70" s="7">
         <v>143</v>
@@ -1849,7 +1781,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="C71" s="7">
         <v>151</v>
@@ -1860,7 +1792,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C72" s="7">
         <v>163</v>
@@ -1871,7 +1803,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C73" s="7">
         <v>129</v>
@@ -1882,7 +1814,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C74" s="7">
         <v>129</v>
@@ -1893,7 +1825,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C75" s="7">
         <v>132</v>
@@ -1904,7 +1836,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C76" s="7">
         <v>138</v>
@@ -1915,7 +1847,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C77" s="7">
         <v>137</v>
@@ -1926,7 +1858,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C78" s="7">
         <v>152</v>
@@ -1937,7 +1869,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C79" s="7">
         <v>152</v>
@@ -1948,7 +1880,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C80" s="7">
         <v>144</v>
@@ -1959,7 +1891,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C81" s="7">
         <v>144</v>
@@ -1970,7 +1902,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C82" s="7">
         <v>148</v>
@@ -1981,7 +1913,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C83" s="7">
         <v>146</v>
@@ -1992,7 +1924,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C84" s="7">
         <v>150</v>
@@ -2003,7 +1935,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="C85" s="7">
         <v>154</v>
@@ -2014,7 +1946,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="C86" s="7">
         <v>153</v>
@@ -2025,7 +1957,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="C87" s="7">
         <v>147</v>
@@ -2036,7 +1968,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C88" s="7">
         <v>157</v>
@@ -2047,7 +1979,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C89" s="7">
         <v>169</v>
@@ -2058,7 +1990,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C90" s="7">
         <v>134</v>
@@ -2069,10 +2001,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C91" s="9">
         <v>139</v>
@@ -2083,7 +2015,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C92" s="9">
         <v>139</v>
@@ -2094,7 +2026,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C93" s="9">
         <v>141</v>
@@ -2105,7 +2037,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C94" s="9">
         <v>134</v>
@@ -2116,7 +2048,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C95" s="9">
         <v>139</v>
@@ -2127,7 +2059,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C96" s="9">
         <v>139</v>
@@ -2138,7 +2070,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C97" s="9">
         <v>138</v>
@@ -2149,7 +2081,7 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C98" s="9">
         <v>139</v>
@@ -2160,7 +2092,7 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C99" s="9">
         <v>140</v>
@@ -2171,7 +2103,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C100" s="9">
         <v>148</v>
@@ -2182,7 +2114,7 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C101" s="9">
         <v>142</v>
@@ -2193,7 +2125,7 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C102" s="9">
         <v>139</v>
@@ -2204,7 +2136,7 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C103" s="9">
         <v>144</v>
@@ -2215,7 +2147,7 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C104" s="9">
         <v>142</v>
@@ -2226,7 +2158,7 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C105" s="9">
         <v>139</v>
@@ -2237,7 +2169,7 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C106" s="9">
         <v>149</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C107" s="9">
         <v>159</v>
@@ -2259,7 +2191,7 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C108" s="9">
         <v>150</v>
@@ -2270,7 +2202,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C109" s="9">
         <v>140</v>
@@ -2281,7 +2213,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C110" s="9">
         <v>146</v>
@@ -2292,7 +2224,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C111" s="9">
         <v>148</v>
@@ -2303,7 +2235,7 @@
     </row>
     <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C112" s="9">
         <v>151</v>
@@ -2314,7 +2246,7 @@
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C113" s="9">
         <v>148</v>
@@ -2325,7 +2257,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C114" s="9">
         <v>150</v>
@@ -2347,7 +2279,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C116" s="9">
         <v>142</v>
@@ -2358,7 +2290,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C117" s="9">
         <v>144</v>
@@ -2380,7 +2312,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C119" s="9">
         <v>140</v>
@@ -2391,7 +2323,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C120" s="9">
         <v>141</v>
@@ -2402,7 +2334,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C121" s="9">
         <v>164</v>
@@ -2411,7 +2343,7 @@
         <v>81</v>
       </c>
       <c r="F121" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="G121">
         <v>164</v>
@@ -2422,7 +2354,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C122" s="9">
         <v>163</v>
@@ -2433,7 +2365,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C123" s="9">
         <v>159</v>
@@ -2444,7 +2376,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>129</v>
@@ -2458,7 +2390,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C125" s="11">
         <v>151</v>
@@ -2469,7 +2401,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C126" s="11">
         <v>135</v>
@@ -2480,7 +2412,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C127" s="11">
         <v>152</v>
@@ -2491,7 +2423,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C128" s="11">
         <v>150</v>
@@ -2502,7 +2434,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C129" s="11">
         <v>135</v>
@@ -2513,7 +2445,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C130" s="11">
         <v>138</v>
@@ -2524,7 +2456,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C131" s="11">
         <v>152</v>
@@ -2535,7 +2467,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C132" s="11">
         <v>138</v>
@@ -2546,7 +2478,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C133" s="11">
         <v>139</v>
@@ -2557,7 +2489,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C134" s="11">
         <v>140</v>
@@ -2568,7 +2500,7 @@
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C135" s="11">
         <v>150</v>
@@ -2580,7 +2512,7 @@
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="19" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C136" s="11">
         <v>140</v>
@@ -2592,7 +2524,7 @@
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="11" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C137" s="11">
         <v>159</v>
@@ -2603,7 +2535,7 @@
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C138" s="11">
         <v>155</v>
@@ -2614,10 +2546,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C139" s="13">
         <v>145</v>
@@ -2628,7 +2560,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C140" s="13">
         <v>156</v>
@@ -2639,7 +2571,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C141" s="13">
         <v>152</v>
@@ -2650,7 +2582,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C142" s="13">
         <v>137</v>
@@ -2661,7 +2593,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C143" s="13">
         <v>145</v>
@@ -2672,7 +2604,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C144" s="13">
         <v>138</v>
@@ -2683,7 +2615,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C145" s="13">
         <v>137</v>
@@ -2694,7 +2626,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C146" s="13">
         <v>138</v>
@@ -2705,7 +2637,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C147" s="13">
         <v>160</v>
@@ -2716,7 +2648,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C148" s="13">
         <v>141</v>
@@ -2727,7 +2659,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C149" s="13">
         <v>160</v>
@@ -2738,7 +2670,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C150" s="13">
         <v>160</v>
@@ -2749,7 +2681,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C151" s="13">
         <v>168</v>
@@ -2760,7 +2692,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C152" s="13">
         <v>143</v>
@@ -2771,7 +2703,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C153" s="13">
         <v>145</v>
@@ -2782,7 +2714,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C154" s="13">
         <v>133</v>
@@ -2793,7 +2725,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C155" s="13">
         <v>141</v>
@@ -2804,7 +2736,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C156" s="13">
         <v>142</v>
@@ -2815,7 +2747,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C157" s="13">
         <v>123</v>
@@ -2826,7 +2758,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C158" s="13">
         <v>160</v>
@@ -2837,10 +2769,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C159" s="14">
         <v>159</v>
@@ -2851,7 +2783,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C160" s="14">
         <v>159</v>
@@ -2862,7 +2794,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="14" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C161" s="14">
         <v>150</v>
@@ -2873,7 +2805,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C162" s="14">
         <v>150</v>
@@ -2884,10 +2816,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C163" s="15">
         <v>152</v>
@@ -2898,7 +2830,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="15" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="C164" s="15">
         <v>147</v>
@@ -2909,10 +2841,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C165" s="16">
         <v>160</v>
@@ -2923,10 +2855,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C166" s="17">
         <v>155</v>
@@ -2937,7 +2869,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="17" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C167" s="17">
         <v>157</v>
@@ -2948,7 +2880,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="17" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C168" s="17">
         <v>155</v>
@@ -2959,7 +2891,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" s="17" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C169" s="17">
         <v>159</v>
@@ -2970,7 +2902,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D217B62-AEA9-4BCB-94BA-86F21DEE1A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23985" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -109,301 +103,301 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>GALAXYS6</t>
-  </si>
-  <si>
-    <t>GALAXYS6EDGE</t>
-  </si>
-  <si>
-    <t>GALAXYS6EDGE+</t>
-  </si>
-  <si>
-    <t>GALAXYS7</t>
-  </si>
-  <si>
-    <t>GALAXYS7EDGE</t>
-  </si>
-  <si>
-    <t>GALAXYS8</t>
-  </si>
-  <si>
-    <t>GALAXYS8+</t>
-  </si>
-  <si>
-    <t>GALAXYS9</t>
-  </si>
-  <si>
-    <t>GALAXYS9+</t>
-  </si>
-  <si>
-    <t>GALAXYS10</t>
-  </si>
-  <si>
-    <t>GALAXYS10E</t>
-  </si>
-  <si>
-    <t>GALAXYS10+</t>
-  </si>
-  <si>
-    <t>GALAXYA3</t>
-  </si>
-  <si>
-    <t>GALAXYA32016</t>
-  </si>
-  <si>
-    <t>GALAXYA32017</t>
-  </si>
-  <si>
-    <t>GALAXYA5</t>
-  </si>
-  <si>
-    <t>GALAXYA52016</t>
-  </si>
-  <si>
-    <t>GALAXYA52017</t>
-  </si>
-  <si>
-    <t>GALAXYA52018</t>
-  </si>
-  <si>
-    <t>GALAXYA62018</t>
-  </si>
-  <si>
-    <t>GALAXYA6+2018</t>
-  </si>
-  <si>
-    <t>GALAXYA7</t>
-  </si>
-  <si>
-    <t>GALAXYA72016</t>
-  </si>
-  <si>
-    <t>GALAXYA72017</t>
-  </si>
-  <si>
-    <t>GALAXYA72018</t>
-  </si>
-  <si>
-    <t>GALAXYA8</t>
-  </si>
-  <si>
-    <t>GALAXYA82018</t>
-  </si>
-  <si>
-    <t>GALAXYA8+2018</t>
-  </si>
-  <si>
-    <t>GALAXYA9</t>
-  </si>
-  <si>
-    <t>GALAXYA10</t>
-  </si>
-  <si>
-    <t>GALAXYA10E</t>
-  </si>
-  <si>
-    <t>GALAXYA20</t>
-  </si>
-  <si>
-    <t>GALAXYA30</t>
-  </si>
-  <si>
-    <t>GALAXYA20E</t>
-  </si>
-  <si>
-    <t>GALAXYA40</t>
-  </si>
-  <si>
-    <t>GALAXYA50</t>
-  </si>
-  <si>
-    <t>GALAXYA60</t>
-  </si>
-  <si>
-    <t>GALAXYA70</t>
-  </si>
-  <si>
-    <t>GALAXYJ22018</t>
-  </si>
-  <si>
-    <t>GALAXYJ2PRO2018</t>
-  </si>
-  <si>
-    <t>GALAXYJ3</t>
-  </si>
-  <si>
-    <t>GALAXYJ32015</t>
-  </si>
-  <si>
-    <t>GALAXYJ32016</t>
-  </si>
-  <si>
-    <t>GALAXYJ32017</t>
-  </si>
-  <si>
-    <t>GALAXYJ32018</t>
-  </si>
-  <si>
-    <t>GALAXYJ42018</t>
-  </si>
-  <si>
-    <t>GALAXYJ4+2018</t>
-  </si>
-  <si>
-    <t>GALAXYJ5</t>
-  </si>
-  <si>
-    <t>GALAXYJ52015</t>
-  </si>
-  <si>
-    <t>GALAXYJ52016</t>
-  </si>
-  <si>
-    <t>GALAXYJ52017</t>
-  </si>
-  <si>
-    <t>GALAXYJ6</t>
-  </si>
-  <si>
-    <t>GALAXYJ6+</t>
-  </si>
-  <si>
-    <t>GALAXYJ6+2018</t>
-  </si>
-  <si>
-    <t>GALAXYJ7</t>
-  </si>
-  <si>
-    <t>GALAXYJ72015</t>
-  </si>
-  <si>
-    <t>GALAXYJ72016</t>
-  </si>
-  <si>
-    <t>GALAXYJ72017</t>
-  </si>
-  <si>
-    <t>GALAXYJ82018</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE8</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE9</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE10</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE10+</t>
-  </si>
-  <si>
-    <t>GALAXYNOTE10PRO</t>
-  </si>
-  <si>
-    <t>GALAXYGRANDPRIME</t>
+    <t>SAMSUNGGALAXYS6</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS6EDGE</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS6EDGE+</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS7</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS7EDGE</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS8</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS8+</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS9</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS9+</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS10</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS10E</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYS10+</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA3</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA32016</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA32017</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA5</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA52016</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA52017</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA52018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA62018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA6+2018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA7</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA72016</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA72017</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA72018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA8</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA82018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA8+2018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA9</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA10</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA10E</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA20</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA30</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA20E</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA40</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA50</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA60</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYA70</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ22018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ2PRO2018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ3</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ32015</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ32016</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ32017</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ32018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ42018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ4+2018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ5</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ52015</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ52016</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ52017</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ6</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ6+</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ6+2018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ7</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ72015</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ72016</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ72017</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ82018</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYNOTE8</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYNOTE9</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYNOTE10</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYNOTE10+</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYNOTE10PRO</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYGRANDPRIME</t>
   </si>
   <si>
     <t>HUAWEI</t>
   </si>
   <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P8LITE</t>
-  </si>
-  <si>
-    <t>P8LITE2017</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P9LITE</t>
-  </si>
-  <si>
-    <t>P9+</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P10LITE</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>P20PRO</t>
-  </si>
-  <si>
-    <t>P20LITE</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
-    <t>P30PRO</t>
-  </si>
-  <si>
-    <t>P30LITE</t>
-  </si>
-  <si>
-    <t>PSMART</t>
-  </si>
-  <si>
-    <t>PSMART2019</t>
-  </si>
-  <si>
-    <t>MATE8</t>
-  </si>
-  <si>
-    <t>MATE9</t>
-  </si>
-  <si>
-    <t>MATE10</t>
-  </si>
-  <si>
-    <t>MATE10PRO</t>
-  </si>
-  <si>
-    <t>MATE10LITE</t>
-  </si>
-  <si>
-    <t>MATE20</t>
-  </si>
-  <si>
-    <t>MATE20PRO</t>
-  </si>
-  <si>
-    <t>MATE20LITE</t>
-  </si>
-  <si>
-    <t>ENJOY6S</t>
-  </si>
-  <si>
-    <t>Y32017</t>
-  </si>
-  <si>
-    <t>Y52017</t>
-  </si>
-  <si>
-    <t>Y52018</t>
-  </si>
-  <si>
-    <t>Y52019</t>
-  </si>
-  <si>
-    <t>Y62018</t>
-  </si>
-  <si>
-    <t>Y62019</t>
-  </si>
-  <si>
-    <t>Y72019</t>
-  </si>
-  <si>
-    <t>Y72018</t>
+    <t>HUAWEIP8</t>
+  </si>
+  <si>
+    <t>HUAWEIP8LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIP8LITE2017</t>
+  </si>
+  <si>
+    <t>HUAWEIP9</t>
+  </si>
+  <si>
+    <t>HUAWEIP9LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIP9+</t>
+  </si>
+  <si>
+    <t>HUAWEIP10</t>
+  </si>
+  <si>
+    <t>HUAWEIP10LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIP20</t>
+  </si>
+  <si>
+    <t>HUAWEIP20PRO</t>
+  </si>
+  <si>
+    <t>HUAWEIP20LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIP30</t>
+  </si>
+  <si>
+    <t>HUAWEIP30PRO</t>
+  </si>
+  <si>
+    <t>HUAWEIP30LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIPSMART</t>
+  </si>
+  <si>
+    <t>HUAWEIPSMART2019</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE8</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE9</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE10</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE10PRO</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE10LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE20</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE20PRO</t>
+  </si>
+  <si>
+    <t>HUAWEIMATE20LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIENJOHUAWEIY6S</t>
+  </si>
+  <si>
+    <t>HUAWEIY32017</t>
+  </si>
+  <si>
+    <t>HUAWEIY52017</t>
+  </si>
+  <si>
+    <t>HUAWEIY52018</t>
+  </si>
+  <si>
+    <t>HUAWEIY52019</t>
+  </si>
+  <si>
+    <t>HUAWEIY62018</t>
+  </si>
+  <si>
+    <t>HUAWEIY62019</t>
+  </si>
+  <si>
+    <t>HUAWEIY72019</t>
+  </si>
+  <si>
+    <t>HUAWEIY72018</t>
   </si>
   <si>
     <t>Honor</t>
@@ -520,16 +514,16 @@
     <t>XIAOMI</t>
   </si>
   <si>
-    <t>REDMINOTE5</t>
-  </si>
-  <si>
-    <t>REDMI5+</t>
-  </si>
-  <si>
-    <t>REDMI6</t>
-  </si>
-  <si>
-    <t>REDMI6A</t>
+    <t>XIAOMIREDMINOTE5</t>
+  </si>
+  <si>
+    <t>XIAOMIREDMI5+</t>
+  </si>
+  <si>
+    <t>XIAOMIREDMI6</t>
+  </si>
+  <si>
+    <t>XIAOMIREDMI6A</t>
   </si>
   <si>
     <t>NOKIA</t>
@@ -544,7 +538,7 @@
     <t>GOOGLE</t>
   </si>
   <si>
-    <t>PIXEL3XL</t>
+    <t>GOOGLEPIXEL3XL</t>
   </si>
   <si>
     <t>ONEPLUS</t>
@@ -565,15 +559,173 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,8 +786,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -658,44 +996,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9"/>
+    <cellStyle name="Virgule" xfId="3" builtinId="3"/>
+    <cellStyle name="60 % - Accent6" xfId="4" builtinId="52"/>
+    <cellStyle name="Calcul" xfId="5" builtinId="22"/>
+    <cellStyle name="Titre" xfId="6" builtinId="15"/>
+    <cellStyle name="Monétaire [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="Monétaire" xfId="8" builtinId="4"/>
+    <cellStyle name="Milliers [0]" xfId="9" builtinId="6"/>
+    <cellStyle name="Cellule liée" xfId="10" builtinId="24"/>
+    <cellStyle name="Pourcentage" xfId="11" builtinId="5"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8"/>
+    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
+    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
+    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
+    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
+    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
+    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
+    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
+    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
+    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
+    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
+    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
+    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
+    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
+    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
+    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
+    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
+    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
+    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
+    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
+    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
+    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
+    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
+    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
+    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
+    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -982,28 +1596,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170:D172"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="35.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="19.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="19.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,1332 +1628,1332 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>210</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>35</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>145</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>139</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>151</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>136</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>136</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>142</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>151</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>115</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>123</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>123</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>120</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>132</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>132</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>147</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>147</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>130</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>130</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>151</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>151</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>107</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>117</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+    <row r="25" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>117</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>134</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>135</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>150</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>132</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>141</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>140</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>151</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>140</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>149</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>140</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>130</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>148</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>120</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>130</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>128</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="2:4">
+      <c r="B41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>131</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>139</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>138</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>152</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>138</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>148</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>141</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>145</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>149</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>150</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>150</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>141</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>151</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>155</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>147</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>152</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>159</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>159</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>147</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>140</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <v>157</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>162</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <v>155</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>143</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="2:4">
+      <c r="B65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>143</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+    <row r="66" spans="2:4">
+      <c r="B66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>129</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+    <row r="67" spans="2:4">
+      <c r="B67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>129</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="2:4">
+      <c r="B68" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>128</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+    <row r="69" spans="2:4">
+      <c r="B69" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <v>136</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="2:4">
+      <c r="B70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <v>143</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="2:4">
+      <c r="B71" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <v>151</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+    <row r="72" spans="2:4">
+      <c r="B72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>163</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+    <row r="73" spans="2:4">
+      <c r="B73" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>129</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+    <row r="74" spans="2:4">
+      <c r="B74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="4">
         <v>129</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+    <row r="75" spans="2:4">
+      <c r="B75" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="4">
         <v>132</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+    <row r="76" spans="2:4">
+      <c r="B76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="4">
         <v>138</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="2:4">
+      <c r="B77" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="4">
         <v>137</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="2:4">
+      <c r="B78" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <v>152</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+    <row r="79" spans="2:4">
+      <c r="B79" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="4">
         <v>152</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
+    <row r="80" spans="2:4">
+      <c r="B80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="4">
         <v>144</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
+    <row r="81" spans="2:4">
+      <c r="B81" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="4">
         <v>144</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="2:4">
+      <c r="B82" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <v>148</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
+    <row r="83" spans="2:4">
+      <c r="B83" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="4">
         <v>146</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+    <row r="84" spans="2:4">
+      <c r="B84" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="4">
         <v>150</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+    <row r="85" spans="2:4">
+      <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="4">
         <v>154</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
+    <row r="86" spans="2:4">
+      <c r="B86" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="4">
         <v>153</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
+    <row r="87" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="4">
         <v>147</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+    <row r="88" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B88" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="4">
         <v>157</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
+    <row r="89" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B89" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="4">
         <v>169</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="4">
         <v>134</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="5">
         <v>139</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="8" t="s">
+    <row r="92" spans="2:4">
+      <c r="B92" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="5">
         <v>139</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
+    <row r="93" spans="2:4">
+      <c r="B93" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="5">
         <v>141</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
+    <row r="94" spans="2:4">
+      <c r="B94" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="5">
         <v>134</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
+    <row r="95" spans="2:4">
+      <c r="B95" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="5">
         <v>139</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
+    <row r="96" spans="2:4">
+      <c r="B96" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="5">
         <v>139</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="5">
         <v>138</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+    <row r="98" spans="2:4">
+      <c r="B98" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="5">
         <v>139</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+    <row r="99" spans="2:4">
+      <c r="B99" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="5">
         <v>140</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+    <row r="100" spans="2:4">
+      <c r="B100" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="5">
         <v>148</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+    <row r="101" spans="2:4">
+      <c r="B101" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="5">
         <v>142</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
+    <row r="102" spans="2:4">
+      <c r="B102" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="5">
         <v>139</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+    <row r="103" spans="2:4">
+      <c r="B103" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="5">
         <v>144</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
+    <row r="104" spans="2:4">
+      <c r="B104" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="5">
         <v>142</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+    <row r="105" spans="2:4">
+      <c r="B105" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="5">
         <v>139</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
+    <row r="106" spans="2:4">
+      <c r="B106" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="5">
         <v>149</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="8" t="s">
+    <row r="107" spans="2:4">
+      <c r="B107" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="5">
         <v>159</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+    <row r="108" spans="2:4">
+      <c r="B108" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="5">
         <v>150</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+    <row r="109" spans="2:4">
+      <c r="B109" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="5">
         <v>140</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
+    <row r="110" spans="2:4">
+      <c r="B110" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="5">
         <v>146</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
+    <row r="111" spans="2:4">
+      <c r="B111" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="5">
         <v>148</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+    <row r="112" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B112" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="5">
         <v>151</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+    <row r="113" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B113" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="5">
         <v>148</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
+    <row r="114" spans="2:4">
+      <c r="B114" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="5">
         <v>150</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="2:4">
+      <c r="B115" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="5">
         <v>142</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="9" t="s">
+    <row r="116" spans="2:4">
+      <c r="B116" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="5">
         <v>142</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="2:4">
+      <c r="B117" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="5">
         <v>144</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="9" t="s">
+    <row r="118" spans="2:4">
+      <c r="B118" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="5">
         <v>130</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+    <row r="119" spans="2:4">
+      <c r="B119" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="5">
         <v>140</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="8" t="s">
+    <row r="120" spans="2:4">
+      <c r="B120" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="5">
         <v>141</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
+    <row r="121" spans="2:8">
+      <c r="B121" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="5">
         <v>164</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="5">
         <v>81</v>
       </c>
       <c r="F121" t="s">
@@ -2352,557 +2966,556 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="8" t="s">
+    <row r="122" spans="2:4">
+      <c r="B122" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="5">
         <v>163</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="8" t="s">
+    <row r="123" spans="2:4">
+      <c r="B123" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="5">
         <v>159</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="6">
         <v>153</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="11" t="s">
+    <row r="125" spans="2:4">
+      <c r="B125" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="6">
         <v>151</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
+    <row r="126" spans="2:4">
+      <c r="B126" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="6">
         <v>135</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
+    <row r="127" spans="2:4">
+      <c r="B127" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="6">
         <v>152</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
+    <row r="128" spans="2:4">
+      <c r="B128" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="6">
         <v>150</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="10" t="s">
+    <row r="129" spans="2:4">
+      <c r="B129" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="6">
         <v>135</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
+    <row r="130" spans="2:4">
+      <c r="B130" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="6">
         <v>138</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="10" t="s">
+    <row r="131" spans="2:4">
+      <c r="B131" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="6">
         <v>152</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="10" t="s">
+    <row r="132" spans="2:4">
+      <c r="B132" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="6">
         <v>138</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="11" t="s">
+    <row r="133" spans="2:4">
+      <c r="B133" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="6">
         <v>139</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
+    <row r="134" spans="2:4">
+      <c r="B134" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="6">
         <v>140</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="10" t="s">
+    <row r="135" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B135" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="6">
         <v>150</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D135" s="6">
         <v>63</v>
       </c>
-      <c r="G135" s="18"/>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="19" t="s">
+    </row>
+    <row r="136" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B136" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="6">
         <v>140</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="6">
         <v>70</v>
       </c>
-      <c r="G136" s="18"/>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="11" t="s">
+    </row>
+    <row r="137" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B137" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="6">
         <v>159</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
+    <row r="138" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B138" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="6">
         <v>155</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="7">
         <v>145</v>
       </c>
-      <c r="D139" s="13">
+      <c r="D139" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="12" t="s">
+    <row r="140" spans="2:4">
+      <c r="B140" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="7">
         <v>156</v>
       </c>
-      <c r="D140" s="13">
+      <c r="D140" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="12" t="s">
+    <row r="141" spans="2:4">
+      <c r="B141" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="7">
         <v>152</v>
       </c>
-      <c r="D141" s="13">
+      <c r="D141" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="12" t="s">
+    <row r="142" spans="2:4">
+      <c r="B142" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="7">
         <v>137</v>
       </c>
-      <c r="D142" s="13">
+      <c r="D142" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="13" t="s">
+    <row r="143" spans="2:4">
+      <c r="B143" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="7">
         <v>145</v>
       </c>
-      <c r="D143" s="13">
+      <c r="D143" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="12" t="s">
+    <row r="144" spans="2:4">
+      <c r="B144" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="7">
         <v>138</v>
       </c>
-      <c r="D144" s="13">
+      <c r="D144" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="12" t="s">
+    <row r="145" spans="2:4">
+      <c r="B145" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="7">
         <v>137</v>
       </c>
-      <c r="D145" s="13">
+      <c r="D145" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="12" t="s">
+    <row r="146" spans="2:4">
+      <c r="B146" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="7">
         <v>138</v>
       </c>
-      <c r="D146" s="13">
+      <c r="D146" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="12" t="s">
+    <row r="147" spans="2:4">
+      <c r="B147" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="7">
         <v>160</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D147" s="7">
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="12" t="s">
+    <row r="148" spans="2:4">
+      <c r="B148" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="7">
         <v>141</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="12" t="s">
+    <row r="149" spans="2:4">
+      <c r="B149" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="7">
         <v>160</v>
       </c>
-      <c r="D149" s="13">
+      <c r="D149" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="12" t="s">
+    <row r="150" spans="2:4">
+      <c r="B150" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="7">
         <v>160</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D150" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="13" t="s">
+    <row r="151" spans="2:4">
+      <c r="B151" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="7">
         <v>168</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="12" t="s">
+    <row r="152" spans="2:4">
+      <c r="B152" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="7">
         <v>143</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D152" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="12" t="s">
+    <row r="153" spans="2:4">
+      <c r="B153" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="7">
         <v>145</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="12" t="s">
+    <row r="154" spans="2:4">
+      <c r="B154" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="7">
         <v>133</v>
       </c>
-      <c r="D154" s="13">
+      <c r="D154" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="12" t="s">
+    <row r="155" spans="2:4">
+      <c r="B155" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="7">
         <v>141</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="12" t="s">
+    <row r="156" spans="2:4">
+      <c r="B156" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="7">
         <v>142</v>
       </c>
-      <c r="D156" s="13">
+      <c r="D156" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="12" t="s">
+    <row r="157" spans="2:4">
+      <c r="B157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="7">
         <v>123</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D157" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="12" t="s">
+    <row r="158" spans="2:4">
+      <c r="B158" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="7">
         <v>160</v>
       </c>
-      <c r="D158" s="13">
+      <c r="D158" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="2">
         <v>159</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="14" t="s">
+    <row r="160" spans="2:4">
+      <c r="B160" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="2">
         <v>159</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="14" t="s">
+    <row r="161" spans="2:4">
+      <c r="B161" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="2">
         <v>150</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="14" t="s">
+    <row r="162" spans="2:4">
+      <c r="B162" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="2">
         <v>150</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="15" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C163" s="15">
+      <c r="C163" s="8">
         <v>152</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="15" t="s">
+    <row r="164" spans="2:4">
+      <c r="B164" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C164" s="15">
+      <c r="C164" s="8">
         <v>147</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C165" s="16">
+      <c r="C165" s="9">
         <v>160</v>
       </c>
-      <c r="D165" s="16">
+      <c r="D165" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="17" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="10">
         <v>155</v>
       </c>
-      <c r="D166" s="17">
+      <c r="D166" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="17" t="s">
+    <row r="167" spans="2:4">
+      <c r="B167" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C167" s="17">
+      <c r="C167" s="10">
         <v>157</v>
       </c>
-      <c r="D167" s="17">
+      <c r="D167" s="10">
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="17" t="s">
+    <row r="168" spans="2:4">
+      <c r="B168" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="10">
         <v>155</v>
       </c>
-      <c r="D168" s="17">
+      <c r="D168" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="17" t="s">
+    <row r="169" spans="2:4">
+      <c r="B169" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C169" s="17">
+      <c r="C169" s="10">
         <v>159</v>
       </c>
-      <c r="D169" s="17">
+      <c r="D169" s="10">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetDDC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3324292-7CD2-4E76-A54E-21362A4EEAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23985" windowHeight="10410"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -559,173 +565,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,194 +635,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -996,253 +659,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1254,62 +675,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9"/>
-    <cellStyle name="Virgule" xfId="3" builtinId="3"/>
-    <cellStyle name="60 % - Accent6" xfId="4" builtinId="52"/>
-    <cellStyle name="Calcul" xfId="5" builtinId="22"/>
-    <cellStyle name="Titre" xfId="6" builtinId="15"/>
-    <cellStyle name="Monétaire [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="Monétaire" xfId="8" builtinId="4"/>
-    <cellStyle name="Milliers [0]" xfId="9" builtinId="6"/>
-    <cellStyle name="Cellule liée" xfId="10" builtinId="24"/>
-    <cellStyle name="Pourcentage" xfId="11" builtinId="5"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8"/>
-    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
-    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
-    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
-    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
-    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
-    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
-    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
-    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
-    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
-    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
-    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
-    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
-    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
-    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
-    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
-    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
-    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
-    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
-    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
-    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
-    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
-    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1596,28 +974,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="35.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="19.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="19.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="19.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="2:4">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +1120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +1153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1230,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1873,7 +1252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4">
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="2:4">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1909,7 +1288,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
+      <c r="A27" s="11"/>
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1920,7 +1300,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4">
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +1312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4">
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +1323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4">
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1953,7 +1334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="1:4">
       <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1964,7 +1345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4">
       <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
@@ -2151,7 +1532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -2162,7 +1543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
@@ -2173,7 +1554,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
@@ -2184,7 +1565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
@@ -2195,7 +1576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:8">
       <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
@@ -2206,7 +1587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:8">
       <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
@@ -2216,32 +1597,41 @@
       <c r="D54" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="F54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="4">
+        <v>147</v>
+      </c>
+      <c r="H54" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D55" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D56" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
         <v>159</v>
@@ -2250,75 +1640,75 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:8">
       <c r="B58" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D58" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="4">
+        <v>140</v>
+      </c>
+      <c r="D59" s="4">
         <v>62</v>
       </c>
-      <c r="C59" s="4">
-        <v>147</v>
-      </c>
-      <c r="D59" s="4">
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C60" s="4">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D60" s="4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D61" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="4">
+        <v>155</v>
+      </c>
+      <c r="D62" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="4">
+        <v>143</v>
+      </c>
+      <c r="D63" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="4">
-        <v>162</v>
-      </c>
-      <c r="D62" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="4">
-        <v>155</v>
-      </c>
-      <c r="D63" s="4">
+    <row r="64" spans="2:8">
+      <c r="B64" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C64" s="4">
         <v>143</v>
@@ -2329,18 +1719,18 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" s="4">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D65" s="4">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
         <v>129</v>
@@ -2351,73 +1741,73 @@
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" s="4">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D68" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D69" s="4">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="4">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D71" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D72" s="4">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
         <v>129</v>
@@ -2428,51 +1818,51 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" s="4">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D74" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" s="4">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D75" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" s="4">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" s="4">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D77" s="4">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" s="4">
         <v>152</v>
@@ -2483,10 +1873,10 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D79" s="4">
         <v>70</v>
@@ -2494,7 +1884,7 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4">
         <v>144</v>
@@ -2503,122 +1893,122 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="1:4">
       <c r="B81" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D81" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="B82" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="4">
+        <v>146</v>
+      </c>
+      <c r="D82" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="4">
+        <v>150</v>
+      </c>
+      <c r="D83" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="4">
+        <v>154</v>
+      </c>
+      <c r="D84" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="4">
+        <v>153</v>
+      </c>
+      <c r="D85" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="4">
+        <v>147</v>
+      </c>
+      <c r="D86" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="4">
+        <v>157</v>
+      </c>
+      <c r="D87" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="4">
+        <v>169</v>
+      </c>
+      <c r="D88" s="4">
         <v>85</v>
       </c>
-      <c r="C82" s="4">
-        <v>148</v>
-      </c>
-      <c r="D82" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="4">
-        <v>146</v>
-      </c>
-      <c r="D83" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="4">
-        <v>150</v>
-      </c>
-      <c r="D84" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="4">
-        <v>154</v>
-      </c>
-      <c r="D85" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="4">
-        <v>153</v>
-      </c>
-      <c r="D86" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B87" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" s="4">
-        <v>147</v>
-      </c>
-      <c r="D87" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B88" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="4">
-        <v>157</v>
-      </c>
-      <c r="D88" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1" spans="2:4">
+    </row>
+    <row r="89" spans="1:4">
       <c r="B89" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C89" s="4">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D89" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="4">
-        <v>134</v>
-      </c>
-      <c r="D90" s="4">
         <v>64</v>
       </c>
     </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="5">
+        <v>139</v>
+      </c>
+      <c r="D90" s="5">
+        <v>66</v>
+      </c>
+    </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="B91" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" s="5">
         <v>139</v>
@@ -2627,42 +2017,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="1:4">
       <c r="B92" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" s="5">
+        <v>141</v>
+      </c>
+      <c r="D92" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="5">
+        <v>134</v>
+      </c>
+      <c r="D93" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="5">
         <v>139</v>
       </c>
-      <c r="D92" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="5">
-        <v>141</v>
-      </c>
-      <c r="D93" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="5">
-        <v>134</v>
-      </c>
       <c r="D94" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="B95" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="5">
         <v>139</v>
@@ -2671,806 +2061,823 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="1:4">
       <c r="B96" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" s="5">
+        <v>138</v>
+      </c>
+      <c r="D96" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="5">
         <v>139</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D97" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="5">
+        <v>140</v>
+      </c>
+      <c r="D98" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="5">
+        <v>148</v>
+      </c>
+      <c r="D99" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="5">
+        <v>142</v>
+      </c>
+      <c r="D100" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="5">
-        <v>138</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="G100" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H100" s="5">
+        <v>142</v>
+      </c>
+      <c r="I100" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="5">
+    <row r="101" spans="2:9">
+      <c r="B101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="5">
         <v>139</v>
       </c>
-      <c r="D98" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="5">
-        <v>140</v>
-      </c>
-      <c r="D99" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="5">
-        <v>148</v>
-      </c>
-      <c r="D100" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="5">
-        <v>142</v>
-      </c>
       <c r="D101" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" s="5">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D102" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:9">
       <c r="B103" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" s="5">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D103" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="5">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D104" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:9">
       <c r="B105" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="5">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D105" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C106" s="5">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D106" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" s="5">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D107" s="5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" s="5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D108" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C109" s="5">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D109" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="15.75" customHeight="1">
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C110" s="5">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D110" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="15.75" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C111" s="5">
         <v>148</v>
       </c>
       <c r="D111" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="5">
+        <v>150</v>
+      </c>
+      <c r="D112" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B112" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C112" s="5">
+    <row r="113" spans="1:8">
+      <c r="B113" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="5">
+        <v>142</v>
+      </c>
+      <c r="D113" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="B114" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="5">
+        <v>142</v>
+      </c>
+      <c r="D114" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="5">
+        <v>144</v>
+      </c>
+      <c r="D115" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="5">
+        <v>130</v>
+      </c>
+      <c r="D116" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="5">
+        <v>140</v>
+      </c>
+      <c r="D117" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="5">
+        <v>141</v>
+      </c>
+      <c r="D118" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="5">
+        <v>164</v>
+      </c>
+      <c r="D119" s="5">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
+        <v>125</v>
+      </c>
+      <c r="G119">
+        <v>164</v>
+      </c>
+      <c r="H119">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="B120" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="5">
+        <v>163</v>
+      </c>
+      <c r="D120" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="5">
+        <v>159</v>
+      </c>
+      <c r="D121" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="6">
+        <v>153</v>
+      </c>
+      <c r="D122" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="6">
         <v>151</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D123" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="6">
+        <v>135</v>
+      </c>
+      <c r="D124" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="6">
+        <v>152</v>
+      </c>
+      <c r="D125" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="6">
+        <v>150</v>
+      </c>
+      <c r="D126" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="6">
+        <v>135</v>
+      </c>
+      <c r="D127" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B113" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="5">
-        <v>148</v>
-      </c>
-      <c r="D113" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="5">
-        <v>150</v>
-      </c>
-      <c r="D114" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="5">
-        <v>142</v>
-      </c>
-      <c r="D115" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="5">
-        <v>142</v>
-      </c>
-      <c r="D116" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C117" s="5">
-        <v>144</v>
-      </c>
-      <c r="D117" s="5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" s="5">
-        <v>130</v>
-      </c>
-      <c r="D118" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="B119" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="5">
-        <v>140</v>
-      </c>
-      <c r="D119" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
-      <c r="B120" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="5">
-        <v>141</v>
-      </c>
-      <c r="D120" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="5">
-        <v>164</v>
-      </c>
-      <c r="D121" s="5">
-        <v>81</v>
-      </c>
-      <c r="F121" t="s">
-        <v>125</v>
-      </c>
-      <c r="G121">
-        <v>164</v>
-      </c>
-      <c r="H121">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="B122" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="5">
-        <v>163</v>
-      </c>
-      <c r="D122" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4">
-      <c r="B123" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="5">
-        <v>159</v>
-      </c>
-      <c r="D123" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C124" s="6">
-        <v>153</v>
-      </c>
-      <c r="D124" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4">
-      <c r="B125" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C125" s="6">
-        <v>151</v>
-      </c>
-      <c r="D125" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4">
-      <c r="B126" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C126" s="6">
+    <row r="128" spans="1:8">
+      <c r="B128" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D126" s="6">
+      <c r="C128" s="6">
+        <v>138</v>
+      </c>
+      <c r="D128" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="6">
+        <v>152</v>
+      </c>
+      <c r="D129" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
-      <c r="B127" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C127" s="6">
-        <v>152</v>
-      </c>
-      <c r="D127" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4">
-      <c r="B128" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" s="6">
-        <v>150</v>
-      </c>
-      <c r="D128" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="6">
-        <v>135</v>
-      </c>
-      <c r="D129" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="1:4">
       <c r="B130" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C130" s="6">
         <v>138</v>
       </c>
       <c r="D130" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="B131" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C131" s="6">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D131" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="B132" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C132" s="6">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D132" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A133" s="11"/>
       <c r="B133" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C133" s="6">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D133" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" customHeight="1">
       <c r="B134" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C134" s="6">
         <v>140</v>
       </c>
       <c r="D134" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1" spans="2:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" customHeight="1">
       <c r="B135" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C135" s="6">
+        <v>159</v>
+      </c>
+      <c r="D135" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B136" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="6">
+        <v>155</v>
+      </c>
+      <c r="D136" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="7">
+        <v>145</v>
+      </c>
+      <c r="D137" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="7">
+        <v>156</v>
+      </c>
+      <c r="D138" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="7">
+        <v>152</v>
+      </c>
+      <c r="D139" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="7">
+        <v>137</v>
+      </c>
+      <c r="D140" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="7">
+        <v>145</v>
+      </c>
+      <c r="D141" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D135" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B136" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="6">
-        <v>140</v>
-      </c>
-      <c r="D136" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B137" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" s="6">
-        <v>159</v>
-      </c>
-      <c r="D137" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B138" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C138" s="6">
-        <v>155</v>
-      </c>
-      <c r="D138" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="7">
-        <v>145</v>
-      </c>
-      <c r="D139" s="7">
+      <c r="C142" s="7">
+        <v>138</v>
+      </c>
+      <c r="D142" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
-      <c r="B140" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" s="7">
-        <v>156</v>
-      </c>
-      <c r="D140" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C141" s="7">
+    <row r="143" spans="1:4">
+      <c r="A143" s="11"/>
+      <c r="B143" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="7">
+        <v>137</v>
+      </c>
+      <c r="D143" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D141" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C142" s="7">
-        <v>137</v>
-      </c>
-      <c r="D142" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="7">
-        <v>145</v>
-      </c>
-      <c r="D143" s="7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4">
-      <c r="B144" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="C144" s="7">
         <v>138</v>
       </c>
       <c r="D144" s="7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="B145" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C145" s="7">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D145" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="B146" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C146" s="7">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D146" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="11"/>
       <c r="B147" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C147" s="7">
         <v>160</v>
       </c>
       <c r="D147" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="11"/>
+      <c r="B148" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="7">
+        <v>160</v>
+      </c>
+      <c r="D148" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="7">
+        <v>168</v>
+      </c>
+      <c r="D149" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="11"/>
+      <c r="B150" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="7">
+        <v>143</v>
+      </c>
+      <c r="D150" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="11"/>
+      <c r="B151" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="7">
+        <v>145</v>
+      </c>
+      <c r="D151" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="11"/>
+      <c r="B152" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" s="7">
+        <v>133</v>
+      </c>
+      <c r="D152" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="11"/>
+      <c r="B153" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" s="7">
+        <v>141</v>
+      </c>
+      <c r="D153" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" s="7">
+        <v>142</v>
+      </c>
+      <c r="D154" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="7">
+        <v>123</v>
+      </c>
+      <c r="D155" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" s="7">
+        <v>160</v>
+      </c>
+      <c r="D156" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="2">
+        <v>159</v>
+      </c>
+      <c r="D157" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="2">
+        <v>159</v>
+      </c>
+      <c r="D158" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="B159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" s="2">
+        <v>150</v>
+      </c>
+      <c r="D159" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="2">
+        <v>150</v>
+      </c>
+      <c r="D160" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="8">
+        <v>152</v>
+      </c>
+      <c r="D161" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="B162" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="8">
+        <v>147</v>
+      </c>
+      <c r="D162" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="9">
+        <v>160</v>
+      </c>
+      <c r="D163" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="10">
+        <v>155</v>
+      </c>
+      <c r="D164" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="B165" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="10">
+        <v>157</v>
+      </c>
+      <c r="D165" s="10">
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
-      <c r="B148" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C148" s="7">
-        <v>141</v>
-      </c>
-      <c r="D148" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
-      <c r="B149" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C149" s="7">
-        <v>160</v>
-      </c>
-      <c r="D149" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C150" s="7">
-        <v>160</v>
-      </c>
-      <c r="D150" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="7">
-        <v>168</v>
-      </c>
-      <c r="D151" s="7">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C152" s="7">
-        <v>143</v>
-      </c>
-      <c r="D152" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C153" s="7">
-        <v>145</v>
-      </c>
-      <c r="D153" s="7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C154" s="7">
-        <v>133</v>
-      </c>
-      <c r="D154" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="B155" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C155" s="7">
-        <v>141</v>
-      </c>
-      <c r="D155" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="B156" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C156" s="7">
-        <v>142</v>
-      </c>
-      <c r="D156" s="7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4">
-      <c r="B157" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C157" s="7">
-        <v>123</v>
-      </c>
-      <c r="D157" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4">
-      <c r="B158" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C158" s="7">
-        <v>160</v>
-      </c>
-      <c r="D158" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="2">
-        <v>159</v>
-      </c>
-      <c r="D159" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4">
-      <c r="B160" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C160" s="2">
-        <v>159</v>
-      </c>
-      <c r="D160" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4">
-      <c r="B161" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C161" s="2">
-        <v>150</v>
-      </c>
-      <c r="D161" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4">
-      <c r="B162" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C162" s="2">
-        <v>150</v>
-      </c>
-      <c r="D162" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C163" s="8">
-        <v>152</v>
-      </c>
-      <c r="D163" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
-      <c r="B164" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C164" s="8">
-        <v>147</v>
-      </c>
-      <c r="D164" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C165" s="9">
-        <v>160</v>
-      </c>
-      <c r="D165" s="9">
-        <v>80</v>
-      </c>
-    </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="B166" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C166" s="10">
         <v>155</v>
@@ -3479,43 +2886,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="1:4">
       <c r="B167" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C167" s="10">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D167" s="10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4">
-      <c r="B168" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C168" s="10">
-        <v>155</v>
-      </c>
-      <c r="D168" s="10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4">
-      <c r="B169" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C169" s="10">
-        <v>159</v>
-      </c>
-      <c r="D169" s="10">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>